--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_11_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_11_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1451388.0426763</v>
+        <v>1448295.559215354</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9987972.097432222</v>
+        <v>9987972.097432218</v>
       </c>
     </row>
     <row r="8">
@@ -673,13 +673,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>12.725494085322</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="T2" t="n">
-        <v>2.177487233474765</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -743,61 +743,61 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11.20861519035161</v>
+      </c>
+      <c r="I3" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="E3" t="n">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>11.20861519035162</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -816,32 +816,32 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="C4" t="n">
-        <v>11.20861519035161</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="E4" t="n">
+      <c r="J4" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>11.20861519035162</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -910,10 +910,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="H5" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="S5" t="n">
-        <v>2.177487233474765</v>
+        <v>12.725494085322</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>11.20861519035162</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>11.20861519035161</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="I7" t="n">
-        <v>12.725494085322</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="J7" t="n">
         <v>12.725494085322</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.20861519035161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="E8" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>11.20861519035161</v>
+        <v>12.725494085322</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>11.20861519035162</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>12.725494085322</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="H9" t="n">
         <v>12.725494085322</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="V10" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>11.20861519035161</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>407.5153189491685</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>305.3184409289812</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>78.51551896878405</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.3069217452062</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.6301424849342</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>120.9975763724155</v>
       </c>
       <c r="Y11" t="n">
-        <v>163.3777689809584</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>8.528360540010301</v>
       </c>
       <c r="H13" t="n">
         <v>147.8784831367641</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>111.3158388285073</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>10.83101436519871</v>
+        <v>188.9384277397761</v>
       </c>
       <c r="T13" t="n">
         <v>230.4566642542072</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5473162184852</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>334.2980427728843</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>407.5153189491685</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>305.3184409289812</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>78.51551896878404</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.3069217452061</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>214.6301424849342</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>315.2085913800245</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8915736242797</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>132.6314804689906</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3158388285073</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>92.08941637799134</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>188.9384277397761</v>
       </c>
       <c r="T16" t="n">
-        <v>230.4566642542072</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5473162184852</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>12.16953280098024</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -1833,7 +1833,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>268.5556889478751</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>186.989384947584</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>407.5153189491685</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>305.3184409289812</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>78.51551896878404</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3069217452061</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>91.98119189761704</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.8915736242797</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.8784831367641</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>92.08941637799134</v>
       </c>
       <c r="S19" t="n">
-        <v>188.9384277397761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>230.4566642542072</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>75.30281931421929</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>22.74991600541084</v>
+        <v>120.290076411951</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>407.5153189491685</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>305.3184409289812</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>78.51551896878404</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>130.3069217452061</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0739375491307</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.8784831367641</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.99754727687993</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>230.4566642542072</v>
+        <v>61.26976967131165</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5473162184852</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -2304,7 +2304,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -2335,7 +2335,7 @@
         <v>407.5153189491685</v>
       </c>
       <c r="H23" t="n">
-        <v>305.3184409289812</v>
+        <v>223.0088183752098</v>
       </c>
       <c r="I23" t="n">
         <v>78.51551896878404</v>
@@ -2383,7 +2383,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>303.2484564625025</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>9.422445510846501</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.8915736242797</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>188.9384277397761</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.4566642542072</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>107.7779324002024</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -2566,7 +2566,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>281.030774085233</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>407.5153189491685</v>
@@ -2620,7 +2620,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>253.8633590161849</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.8915736242797</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.8784831367641</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>111.3158388285073</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.08941637799134</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>188.9384277397761</v>
       </c>
       <c r="T28" t="n">
-        <v>76.69888562060063</v>
+        <v>230.4566642542072</v>
       </c>
       <c r="U28" t="n">
         <v>282.5473162184852</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>94.49513724369848</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>266.862969634532</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -2812,7 +2812,7 @@
         <v>305.3184409289812</v>
       </c>
       <c r="I29" t="n">
-        <v>78.51551896878404</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>253.0739375491307</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>285.5065401722116</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>165.8915736242797</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.8784831367641</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>111.3158388285073</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>92.08941637799134</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>186.4403846803518</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5473162184852</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.54306962124338</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>214.6301424849342</v>
       </c>
       <c r="U32" t="n">
-        <v>121.3792175490416</v>
+        <v>253.0739375491307</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3097,7 +3097,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>260.8310819885161</v>
       </c>
     </row>
     <row r="33">
@@ -3189,16 +3189,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>105.8102335806371</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>147.8784831367641</v>
       </c>
       <c r="I34" t="n">
-        <v>111.3158388285073</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>92.08941637799134</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>188.9384277397761</v>
       </c>
       <c r="T34" t="n">
-        <v>230.4566642542072</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5473162184852</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>147.8145169507293</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>314.6404718281258</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.6301424849342</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>104.7868613569605</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3429,16 +3429,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.9855288942061</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>282.5473162184852</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>268.954077375659</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.3184409289812</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>76.73200304875986</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.3069217452061</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.6301424849342</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0739375491307</v>
       </c>
       <c r="V38" t="n">
-        <v>316.7679032991577</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.8915736242797</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.8784831367641</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>111.3158388285073</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>188.9384277397761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>30.15459066850924</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>105.1063455813174</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>302.5520893270626</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -3751,13 +3751,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>407.5153189491685</v>
       </c>
       <c r="H41" t="n">
-        <v>209.2309817794143</v>
+        <v>305.3184409289812</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.3069217452061</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.6301424849342</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.8915736242797</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>230.4566642542072</v>
+        <v>175.8752940951661</v>
       </c>
       <c r="U43" t="n">
         <v>282.5473162184852</v>
@@ -3960,13 +3960,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>145.1452544244262</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3979,19 +3979,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>204.9402694726563</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>95.9462041718004</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>253.0739375491307</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>11.91192991738018</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -4152,7 +4152,7 @@
         <v>165.8915736242797</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.8784831367641</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>92.08941637799134</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>188.9384277397761</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5473162184852</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.42652760820552</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.84845985765489</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="C2" t="n">
-        <v>35.84845985765489</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="D2" t="n">
-        <v>35.84845985765489</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="E2" t="n">
-        <v>35.84845985765489</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="F2" t="n">
-        <v>22.99442542803671</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="G2" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="H2" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="I2" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="K2" t="n">
-        <v>1.01803952682576</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="L2" t="n">
-        <v>13.61627867129454</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="M2" t="n">
-        <v>13.61627867129454</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="N2" t="n">
-        <v>25.70549805235044</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="O2" t="n">
-        <v>25.70549805235044</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="P2" t="n">
-        <v>38.30373719681921</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Q2" t="n">
         <v>50.90197634128799</v>
@@ -4357,25 +4357,25 @@
         <v>38.04794191166981</v>
       </c>
       <c r="S2" t="n">
-        <v>38.04794191166981</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="T2" t="n">
-        <v>35.84845985765489</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="U2" t="n">
-        <v>35.84845985765489</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="V2" t="n">
-        <v>35.84845985765489</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="W2" t="n">
-        <v>35.84845985765489</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="X2" t="n">
-        <v>35.84845985765489</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.84845985765489</v>
+        <v>26.72610838606212</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.72610838606212</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="C3" t="n">
-        <v>26.72610838606212</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="D3" t="n">
+        <v>25.19390748205163</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25.19390748205163</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25.19390748205163</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25.19390748205163</v>
+      </c>
+      <c r="H3" t="n">
         <v>13.87207395644394</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.01803952682576</v>
       </c>
       <c r="I3" t="n">
         <v>1.01803952682576</v>
@@ -4415,46 +4415,46 @@
         <v>26.21451781576332</v>
       </c>
       <c r="L3" t="n">
-        <v>26.21451781576332</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="M3" t="n">
         <v>38.81275696023209</v>
       </c>
       <c r="N3" t="n">
-        <v>50.90197634128799</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="O3" t="n">
-        <v>50.90197634128799</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="P3" t="n">
-        <v>50.90197634128799</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="Q3" t="n">
         <v>50.90197634128799</v>
       </c>
       <c r="R3" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="S3" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="T3" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="U3" t="n">
-        <v>39.5801428156803</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="V3" t="n">
-        <v>26.72610838606212</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="W3" t="n">
-        <v>26.72610838606212</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="X3" t="n">
-        <v>26.72610838606212</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="Y3" t="n">
-        <v>26.72610838606212</v>
+        <v>25.19390748205163</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.04794191166981</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="C4" t="n">
         <v>26.72610838606212</v>
       </c>
       <c r="D4" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="I4" t="n">
         <v>13.87207395644394</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.01803952682576</v>
       </c>
       <c r="J4" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="K4" t="n">
-        <v>13.61627867129454</v>
+        <v>9.685062537830703</v>
       </c>
       <c r="L4" t="n">
-        <v>25.70549805235044</v>
+        <v>9.685062537830703</v>
       </c>
       <c r="M4" t="n">
-        <v>25.70549805235044</v>
+        <v>9.685062537830703</v>
       </c>
       <c r="N4" t="n">
-        <v>38.30373719681921</v>
+        <v>22.28330168229948</v>
       </c>
       <c r="O4" t="n">
-        <v>38.30373719681921</v>
+        <v>34.88154082676826</v>
       </c>
       <c r="P4" t="n">
-        <v>50.90197634128799</v>
+        <v>47.47977997123704</v>
       </c>
       <c r="Q4" t="n">
         <v>50.90197634128799</v>
       </c>
       <c r="R4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="S4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="T4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="U4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="V4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="W4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="X4" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.04794191166981</v>
+        <v>39.5801428156803</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.84845985765489</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="C5" t="n">
-        <v>35.84845985765489</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="D5" t="n">
-        <v>35.84845985765489</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="E5" t="n">
-        <v>35.84845985765489</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="F5" t="n">
-        <v>22.99442542803671</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="G5" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="H5" t="n">
         <v>1.01803952682576</v>
@@ -4570,22 +4570,22 @@
         <v>13.61627867129454</v>
       </c>
       <c r="K5" t="n">
+        <v>13.61627867129454</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13.61627867129454</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.61627867129454</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13.61627867129454</v>
+      </c>
+      <c r="O5" t="n">
         <v>26.21451781576332</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>38.81275696023209</v>
-      </c>
-      <c r="M5" t="n">
-        <v>38.81275696023209</v>
-      </c>
-      <c r="N5" t="n">
-        <v>50.90197634128799</v>
-      </c>
-      <c r="O5" t="n">
-        <v>50.90197634128799</v>
-      </c>
-      <c r="P5" t="n">
-        <v>50.90197634128799</v>
       </c>
       <c r="Q5" t="n">
         <v>50.90197634128799</v>
@@ -4594,25 +4594,25 @@
         <v>38.04794191166981</v>
       </c>
       <c r="S5" t="n">
-        <v>35.84845985765489</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="T5" t="n">
-        <v>35.84845985765489</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="U5" t="n">
-        <v>35.84845985765489</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="V5" t="n">
-        <v>35.84845985765489</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="W5" t="n">
-        <v>35.84845985765489</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="X5" t="n">
-        <v>35.84845985765489</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="Y5" t="n">
-        <v>35.84845985765489</v>
+        <v>25.19390748205163</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50.90197634128799</v>
+      </c>
+      <c r="D6" t="n">
+        <v>39.5801428156803</v>
+      </c>
+      <c r="E6" t="n">
+        <v>39.5801428156803</v>
+      </c>
+      <c r="F6" t="n">
         <v>26.72610838606212</v>
       </c>
-      <c r="C6" t="n">
+      <c r="G6" t="n">
         <v>26.72610838606212</v>
       </c>
-      <c r="D6" t="n">
-        <v>26.72610838606212</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
         <v>13.87207395644394</v>
-      </c>
-      <c r="F6" t="n">
-        <v>13.87207395644394</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13.87207395644394</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.01803952682576</v>
       </c>
       <c r="I6" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="K6" t="n">
-        <v>1.01803952682576</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="L6" t="n">
-        <v>13.61627867129454</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="M6" t="n">
         <v>25.70549805235044</v>
       </c>
       <c r="N6" t="n">
-        <v>25.70549805235044</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="O6" t="n">
-        <v>38.30373719681921</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="P6" t="n">
-        <v>38.30373719681921</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Q6" t="n">
         <v>50.90197634128799</v>
@@ -4673,25 +4673,25 @@
         <v>50.90197634128799</v>
       </c>
       <c r="S6" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="T6" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="U6" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="V6" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="W6" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="X6" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Y6" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="C7" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="D7" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="E7" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="F7" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="G7" t="n">
-        <v>26.72610838606212</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="H7" t="n">
-        <v>26.72610838606212</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="I7" t="n">
         <v>13.87207395644394</v>
@@ -4728,49 +4728,49 @@
         <v>1.01803952682576</v>
       </c>
       <c r="K7" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01803952682576</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="M7" t="n">
-        <v>9.685062537830703</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="N7" t="n">
-        <v>22.28330168229948</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="O7" t="n">
-        <v>34.88154082676826</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="P7" t="n">
-        <v>47.47977997123704</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Q7" t="n">
         <v>50.90197634128799</v>
       </c>
       <c r="R7" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="S7" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="T7" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="U7" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="V7" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="W7" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="X7" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.72610838606212</v>
+        <v>50.90197634128799</v>
       </c>
     </row>
     <row r="8">
@@ -4786,13 +4786,13 @@
         <v>38.04794191166981</v>
       </c>
       <c r="D8" t="n">
-        <v>38.04794191166981</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="E8" t="n">
-        <v>25.19390748205163</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="F8" t="n">
-        <v>12.33987305243345</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="G8" t="n">
         <v>1.01803952682576</v>
@@ -4804,25 +4804,25 @@
         <v>1.01803952682576</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01803952682576</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="K8" t="n">
-        <v>13.61627867129454</v>
+        <v>13.10725890788166</v>
       </c>
       <c r="L8" t="n">
+        <v>13.10725890788166</v>
+      </c>
+      <c r="M8" t="n">
+        <v>13.10725890788166</v>
+      </c>
+      <c r="N8" t="n">
         <v>25.70549805235044</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>38.30373719681921</v>
       </c>
-      <c r="N8" t="n">
-        <v>50.90197634128799</v>
-      </c>
-      <c r="O8" t="n">
-        <v>50.90197634128799</v>
-      </c>
       <c r="P8" t="n">
-        <v>50.90197634128799</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="Q8" t="n">
         <v>50.90197634128799</v>
@@ -4840,16 +4840,16 @@
         <v>50.90197634128799</v>
       </c>
       <c r="V8" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="W8" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="X8" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Y8" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="C9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="D9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="E9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="F9" t="n">
-        <v>39.5801428156803</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="G9" t="n">
         <v>26.72610838606212</v>
@@ -4886,16 +4886,16 @@
         <v>13.61627867129454</v>
       </c>
       <c r="K9" t="n">
-        <v>26.21451781576332</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="L9" t="n">
-        <v>38.30373719681921</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="M9" t="n">
-        <v>38.30373719681921</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="N9" t="n">
-        <v>38.30373719681921</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="O9" t="n">
         <v>38.30373719681921</v>
@@ -4907,28 +4907,28 @@
         <v>50.90197634128799</v>
       </c>
       <c r="R9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="S9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="T9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="U9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="V9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="W9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="X9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="Y9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="C10" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="D10" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="E10" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="F10" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="G10" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="H10" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="I10" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="J10" t="n">
         <v>1.01803952682576</v>
@@ -4968,19 +4968,19 @@
         <v>1.01803952682576</v>
       </c>
       <c r="L10" t="n">
-        <v>13.61627867129454</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="M10" t="n">
-        <v>26.21451781576332</v>
+        <v>9.685062537830703</v>
       </c>
       <c r="N10" t="n">
-        <v>38.30373719681921</v>
+        <v>22.28330168229948</v>
       </c>
       <c r="O10" t="n">
-        <v>50.90197634128799</v>
+        <v>34.88154082676826</v>
       </c>
       <c r="P10" t="n">
-        <v>50.90197634128799</v>
+        <v>47.47977997123704</v>
       </c>
       <c r="Q10" t="n">
         <v>50.90197634128799</v>
@@ -4998,16 +4998,16 @@
         <v>25.19390748205163</v>
       </c>
       <c r="V10" t="n">
-        <v>12.33987305243345</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="X10" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.01803952682576</v>
+        <v>25.19390748205163</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1245.348310330826</v>
+        <v>835.9866168491069</v>
       </c>
       <c r="C11" t="n">
-        <v>1245.348310330826</v>
+        <v>835.9866168491069</v>
       </c>
       <c r="D11" t="n">
-        <v>859.907181547494</v>
+        <v>835.9866168491069</v>
       </c>
       <c r="E11" t="n">
-        <v>457.3236566640385</v>
+        <v>433.4030919656515</v>
       </c>
       <c r="F11" t="n">
-        <v>457.3236566640385</v>
+        <v>433.4030919656515</v>
       </c>
       <c r="G11" t="n">
-        <v>45.69202136184813</v>
+        <v>433.4030919656515</v>
       </c>
       <c r="H11" t="n">
-        <v>45.69202136184813</v>
+        <v>125.0006263808219</v>
       </c>
       <c r="I11" t="n">
         <v>45.69202136184813</v>
@@ -5044,49 +5044,49 @@
         <v>317.7076650909821</v>
       </c>
       <c r="K11" t="n">
-        <v>382.1504362503119</v>
+        <v>867.5784452820808</v>
       </c>
       <c r="L11" t="n">
-        <v>947.5892006031826</v>
+        <v>1433.017209634952</v>
       </c>
       <c r="M11" t="n">
-        <v>1513.027964956053</v>
+        <v>1588.764451012485</v>
       </c>
       <c r="N11" t="n">
-        <v>1633.165553391886</v>
+        <v>1708.902039448318</v>
       </c>
       <c r="O11" t="n">
-        <v>2198.604317744757</v>
+        <v>1813.676637696506</v>
       </c>
       <c r="P11" t="n">
-        <v>2265.601362745263</v>
+        <v>1880.673682697011</v>
       </c>
       <c r="Q11" t="n">
-        <v>2284.601068092406</v>
+        <v>2227.572659619312</v>
       </c>
       <c r="R11" t="n">
         <v>2284.601068092406</v>
       </c>
       <c r="S11" t="n">
-        <v>2152.97791481442</v>
+        <v>2284.601068092406</v>
       </c>
       <c r="T11" t="n">
-        <v>2152.97791481442</v>
+        <v>2067.802944370251</v>
       </c>
       <c r="U11" t="n">
-        <v>2152.97791481442</v>
+        <v>2067.802944370251</v>
       </c>
       <c r="V11" t="n">
-        <v>1810.871105517939</v>
+        <v>1725.696135073769</v>
       </c>
       <c r="W11" t="n">
-        <v>1810.871105517939</v>
+        <v>1354.697100042057</v>
       </c>
       <c r="X11" t="n">
-        <v>1810.871105517939</v>
+        <v>1232.477325928506</v>
       </c>
       <c r="Y11" t="n">
-        <v>1645.843056042223</v>
+        <v>835.9866168491069</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>234.6652436985836</v>
       </c>
       <c r="K12" t="n">
-        <v>275.6180926012671</v>
+        <v>684.0582046434935</v>
       </c>
       <c r="L12" t="n">
-        <v>841.0568569541376</v>
+        <v>1026.830301443574</v>
       </c>
       <c r="M12" t="n">
-        <v>953.0349752149411</v>
+        <v>1138.808419704377</v>
       </c>
       <c r="N12" t="n">
-        <v>1147.804978961698</v>
+        <v>1263.11588474949</v>
       </c>
       <c r="O12" t="n">
-        <v>1713.243743314569</v>
+        <v>1362.390062952082</v>
       </c>
       <c r="P12" t="n">
-        <v>2272.18743031769</v>
+        <v>1921.333749955203</v>
       </c>
       <c r="Q12" t="n">
-        <v>2284.601068092406</v>
+        <v>2258.190750909165</v>
       </c>
       <c r="R12" t="n">
         <v>2284.601068092406</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>506.2561517887816</v>
+        <v>643.650026108423</v>
       </c>
       <c r="C13" t="n">
-        <v>506.2561517887816</v>
+        <v>473.4449081744123</v>
       </c>
       <c r="D13" t="n">
-        <v>350.6230386912963</v>
+        <v>473.4449081744123</v>
       </c>
       <c r="E13" t="n">
-        <v>195.0642265504988</v>
+        <v>473.4449081744123</v>
       </c>
       <c r="F13" t="n">
-        <v>195.0642265504988</v>
+        <v>316.1189733873852</v>
       </c>
       <c r="G13" t="n">
-        <v>195.0642265504988</v>
+        <v>307.5044677914152</v>
       </c>
       <c r="H13" t="n">
-        <v>45.69202136184813</v>
+        <v>158.1322626027645</v>
       </c>
       <c r="I13" t="n">
         <v>45.69202136184813</v>
@@ -5226,25 +5226,25 @@
         <v>1584.692156448791</v>
       </c>
       <c r="S13" t="n">
-        <v>1573.751737898085</v>
+        <v>1393.845259741946</v>
       </c>
       <c r="T13" t="n">
-        <v>1340.967228550401</v>
+        <v>1161.060750394262</v>
       </c>
       <c r="U13" t="n">
-        <v>1055.56589903678</v>
+        <v>1161.060750394262</v>
       </c>
       <c r="V13" t="n">
-        <v>789.5865538576039</v>
+        <v>1161.060750394262</v>
       </c>
       <c r="W13" t="n">
-        <v>506.2561517887816</v>
+        <v>877.73034832544</v>
       </c>
       <c r="X13" t="n">
-        <v>506.2561517887816</v>
+        <v>643.650026108423</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.2561517887816</v>
+        <v>643.650026108423</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2284.601068092406</v>
+        <v>850.2975304356737</v>
       </c>
       <c r="C14" t="n">
-        <v>1891.425566595337</v>
+        <v>850.2975304356737</v>
       </c>
       <c r="D14" t="n">
-        <v>1505.984437812005</v>
+        <v>850.2975304356737</v>
       </c>
       <c r="E14" t="n">
-        <v>1103.400912928549</v>
+        <v>850.2975304356737</v>
       </c>
       <c r="F14" t="n">
-        <v>765.726122248868</v>
+        <v>433.4030919656515</v>
       </c>
       <c r="G14" t="n">
-        <v>354.0944869466776</v>
+        <v>433.4030919656515</v>
       </c>
       <c r="H14" t="n">
-        <v>45.69202136184813</v>
+        <v>125.0006263808219</v>
       </c>
       <c r="I14" t="n">
         <v>45.69202136184813</v>
@@ -5281,49 +5281,49 @@
         <v>317.7076650909821</v>
       </c>
       <c r="K14" t="n">
-        <v>366.968270107174</v>
+        <v>867.5784452820808</v>
       </c>
       <c r="L14" t="n">
-        <v>932.4070344600447</v>
+        <v>952.6767269329885</v>
       </c>
       <c r="M14" t="n">
-        <v>1047.680403818814</v>
+        <v>1067.950096291758</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.119168171685</v>
+        <v>1188.087684727591</v>
       </c>
       <c r="O14" t="n">
-        <v>2178.557932524555</v>
+        <v>1316.690712796468</v>
       </c>
       <c r="P14" t="n">
-        <v>2245.554977525061</v>
+        <v>1880.673682697011</v>
       </c>
       <c r="Q14" t="n">
-        <v>2264.554682872205</v>
+        <v>2227.572659619312</v>
       </c>
       <c r="R14" t="n">
         <v>2284.601068092406</v>
       </c>
       <c r="S14" t="n">
-        <v>2284.601068092406</v>
+        <v>2152.97791481442</v>
       </c>
       <c r="T14" t="n">
-        <v>2284.601068092406</v>
+        <v>1936.179791092264</v>
       </c>
       <c r="U14" t="n">
-        <v>2284.601068092406</v>
+        <v>1936.179791092264</v>
       </c>
       <c r="V14" t="n">
-        <v>2284.601068092406</v>
+        <v>1936.179791092264</v>
       </c>
       <c r="W14" t="n">
-        <v>2284.601068092406</v>
+        <v>1565.180756060552</v>
       </c>
       <c r="X14" t="n">
-        <v>2284.601068092406</v>
+        <v>1246.788239515073</v>
       </c>
       <c r="Y14" t="n">
-        <v>2284.601068092406</v>
+        <v>850.2975304356737</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>45.69202136184813</v>
       </c>
       <c r="J15" t="n">
-        <v>45.69202136184813</v>
+        <v>234.6652436985836</v>
       </c>
       <c r="K15" t="n">
-        <v>86.64487026453165</v>
+        <v>684.0582046434935</v>
       </c>
       <c r="L15" t="n">
-        <v>508.7613501434754</v>
+        <v>769.2340156394573</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.200114496346</v>
+        <v>881.2121339002608</v>
       </c>
       <c r="N15" t="n">
-        <v>1639.638878849217</v>
+        <v>1005.519598945374</v>
       </c>
       <c r="O15" t="n">
-        <v>2205.077643202088</v>
+        <v>1362.390062952081</v>
       </c>
       <c r="P15" t="n">
-        <v>2272.187430317689</v>
+        <v>1921.333749955202</v>
       </c>
       <c r="Q15" t="n">
-        <v>2284.601068092406</v>
+        <v>2258.190750909164</v>
       </c>
       <c r="R15" t="n">
         <v>2284.601068092406</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>313.691074743562</v>
+        <v>517.4355777739098</v>
       </c>
       <c r="C16" t="n">
-        <v>313.691074743562</v>
+        <v>347.230459839899</v>
       </c>
       <c r="D16" t="n">
-        <v>313.691074743562</v>
+        <v>347.230459839899</v>
       </c>
       <c r="E16" t="n">
-        <v>158.1322626027645</v>
+        <v>347.230459839899</v>
       </c>
       <c r="F16" t="n">
-        <v>158.1322626027645</v>
+        <v>347.230459839899</v>
       </c>
       <c r="G16" t="n">
-        <v>158.1322626027645</v>
+        <v>179.663213754768</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1322626027645</v>
+        <v>45.69202136184813</v>
       </c>
       <c r="I16" t="n">
         <v>45.69202136184813</v>
@@ -5460,28 +5460,28 @@
         <v>1584.692156448791</v>
       </c>
       <c r="R16" t="n">
-        <v>1584.692156448791</v>
+        <v>1491.672543945769</v>
       </c>
       <c r="S16" t="n">
-        <v>1584.692156448791</v>
+        <v>1300.825647238925</v>
       </c>
       <c r="T16" t="n">
-        <v>1351.907647101107</v>
+        <v>1300.825647238925</v>
       </c>
       <c r="U16" t="n">
-        <v>1066.506317587485</v>
+        <v>1300.825647238925</v>
       </c>
       <c r="V16" t="n">
-        <v>1054.213860212758</v>
+        <v>1034.846302059749</v>
       </c>
       <c r="W16" t="n">
-        <v>770.8834581439356</v>
+        <v>751.5158999909268</v>
       </c>
       <c r="X16" t="n">
-        <v>536.8031359269187</v>
+        <v>517.4355777739098</v>
       </c>
       <c r="Y16" t="n">
-        <v>313.691074743562</v>
+        <v>517.4355777739098</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1039.377324774829</v>
+        <v>1524.149427993751</v>
       </c>
       <c r="C17" t="n">
-        <v>646.2018232777598</v>
+        <v>1524.149427993751</v>
       </c>
       <c r="D17" t="n">
-        <v>646.2018232777598</v>
+        <v>1252.881055319129</v>
       </c>
       <c r="E17" t="n">
-        <v>646.2018232777598</v>
+        <v>850.2975304356737</v>
       </c>
       <c r="F17" t="n">
-        <v>457.3236566640385</v>
+        <v>433.4030919656515</v>
       </c>
       <c r="G17" t="n">
-        <v>45.69202136184813</v>
+        <v>433.4030919656515</v>
       </c>
       <c r="H17" t="n">
-        <v>45.69202136184813</v>
+        <v>125.0006263808219</v>
       </c>
       <c r="I17" t="n">
         <v>45.69202136184813</v>
@@ -5521,16 +5521,16 @@
         <v>867.5784452820808</v>
       </c>
       <c r="L17" t="n">
-        <v>1433.017209634952</v>
+        <v>952.6767269329885</v>
       </c>
       <c r="M17" t="n">
-        <v>1548.290578993721</v>
+        <v>1067.950096291758</v>
       </c>
       <c r="N17" t="n">
-        <v>1668.428167429554</v>
+        <v>1188.087684727591</v>
       </c>
       <c r="O17" t="n">
-        <v>1773.202765677742</v>
+        <v>1701.618392844719</v>
       </c>
       <c r="P17" t="n">
         <v>2265.601362745263</v>
@@ -5542,25 +5542,25 @@
         <v>2284.601068092406</v>
       </c>
       <c r="S17" t="n">
-        <v>2152.97791481442</v>
+        <v>2284.601068092406</v>
       </c>
       <c r="T17" t="n">
-        <v>2152.97791481442</v>
+        <v>2284.601068092406</v>
       </c>
       <c r="U17" t="n">
-        <v>2152.97791481442</v>
+        <v>2284.601068092406</v>
       </c>
       <c r="V17" t="n">
-        <v>1810.871105517939</v>
+        <v>2284.601068092406</v>
       </c>
       <c r="W17" t="n">
-        <v>1439.872070486226</v>
+        <v>1913.602033060694</v>
       </c>
       <c r="X17" t="n">
-        <v>1439.872070486226</v>
+        <v>1524.149427993751</v>
       </c>
       <c r="Y17" t="n">
-        <v>1439.872070486226</v>
+        <v>1524.149427993751</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>45.69202136184813</v>
       </c>
       <c r="J18" t="n">
-        <v>45.69202136184813</v>
+        <v>234.6652436985836</v>
       </c>
       <c r="K18" t="n">
-        <v>319.670314119669</v>
+        <v>684.0582046434935</v>
       </c>
       <c r="L18" t="n">
-        <v>885.1090784725396</v>
+        <v>1053.240618626815</v>
       </c>
       <c r="M18" t="n">
-        <v>997.0871967333431</v>
+        <v>1165.218736887618</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.394661778456</v>
+        <v>1289.526201932731</v>
       </c>
       <c r="O18" t="n">
-        <v>1686.833426131327</v>
+        <v>1388.800380135323</v>
       </c>
       <c r="P18" t="n">
-        <v>2245.777113134447</v>
+        <v>1947.744067138443</v>
       </c>
       <c r="Q18" t="n">
-        <v>2258.190750909164</v>
+        <v>2284.601068092406</v>
       </c>
       <c r="R18" t="n">
         <v>2284.601068092406</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>540.790320168017</v>
+        <v>675.590520520142</v>
       </c>
       <c r="C19" t="n">
-        <v>370.5852022340063</v>
+        <v>675.590520520142</v>
       </c>
       <c r="D19" t="n">
-        <v>370.5852022340063</v>
+        <v>519.9574074226568</v>
       </c>
       <c r="E19" t="n">
-        <v>370.5852022340063</v>
+        <v>519.9574074226568</v>
       </c>
       <c r="F19" t="n">
-        <v>213.2592674469792</v>
+        <v>362.6314726356298</v>
       </c>
       <c r="G19" t="n">
-        <v>45.69202136184813</v>
+        <v>195.0642265504988</v>
       </c>
       <c r="H19" t="n">
         <v>45.69202136184813</v>
@@ -5700,25 +5700,25 @@
         <v>1491.672543945769</v>
       </c>
       <c r="S19" t="n">
-        <v>1300.825647238925</v>
+        <v>1491.672543945769</v>
       </c>
       <c r="T19" t="n">
-        <v>1068.041137891241</v>
+        <v>1491.672543945769</v>
       </c>
       <c r="U19" t="n">
-        <v>991.9776840384941</v>
+        <v>1491.672543945769</v>
       </c>
       <c r="V19" t="n">
-        <v>725.9983388593183</v>
+        <v>1225.693198766593</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9983388593183</v>
+        <v>1225.693198766593</v>
       </c>
       <c r="X19" t="n">
-        <v>725.9983388593183</v>
+        <v>991.6128765495765</v>
       </c>
       <c r="Y19" t="n">
-        <v>725.9983388593183</v>
+        <v>768.5008153662199</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1290.373309767909</v>
+        <v>966.5398549566812</v>
       </c>
       <c r="C20" t="n">
-        <v>897.1978082708395</v>
+        <v>966.5398549566812</v>
       </c>
       <c r="D20" t="n">
-        <v>897.1978082708395</v>
+        <v>966.5398549566812</v>
       </c>
       <c r="E20" t="n">
-        <v>874.2180951340608</v>
+        <v>845.0347272678418</v>
       </c>
       <c r="F20" t="n">
-        <v>457.3236566640385</v>
+        <v>845.0347272678418</v>
       </c>
       <c r="G20" t="n">
-        <v>45.69202136184813</v>
+        <v>433.4030919656515</v>
       </c>
       <c r="H20" t="n">
-        <v>45.69202136184813</v>
+        <v>125.0006263808219</v>
       </c>
       <c r="I20" t="n">
         <v>45.69202136184813</v>
       </c>
       <c r="J20" t="n">
-        <v>56.55485261923133</v>
+        <v>317.7076650909821</v>
       </c>
       <c r="K20" t="n">
-        <v>340.4850179648627</v>
+        <v>867.5784452820808</v>
       </c>
       <c r="L20" t="n">
-        <v>905.9237823177333</v>
+        <v>1433.017209634952</v>
       </c>
       <c r="M20" t="n">
-        <v>1471.362546670604</v>
+        <v>1588.764451012485</v>
       </c>
       <c r="N20" t="n">
-        <v>2036.801311023475</v>
+        <v>1708.902039448318</v>
       </c>
       <c r="O20" t="n">
-        <v>2141.575909271663</v>
+        <v>1813.676637696506</v>
       </c>
       <c r="P20" t="n">
-        <v>2208.572954272168</v>
+        <v>1880.673682697011</v>
       </c>
       <c r="Q20" t="n">
         <v>2227.572659619312</v>
@@ -5779,25 +5779,25 @@
         <v>2284.601068092406</v>
       </c>
       <c r="S20" t="n">
-        <v>2284.601068092406</v>
+        <v>2152.97791481442</v>
       </c>
       <c r="T20" t="n">
-        <v>2284.601068092406</v>
+        <v>2152.97791481442</v>
       </c>
       <c r="U20" t="n">
-        <v>2028.97082814379</v>
+        <v>2152.97791481442</v>
       </c>
       <c r="V20" t="n">
-        <v>1686.864018847308</v>
+        <v>2152.97791481442</v>
       </c>
       <c r="W20" t="n">
-        <v>1686.864018847308</v>
+        <v>2152.97791481442</v>
       </c>
       <c r="X20" t="n">
-        <v>1686.864018847308</v>
+        <v>1763.525309747477</v>
       </c>
       <c r="Y20" t="n">
-        <v>1290.373309767909</v>
+        <v>1367.034600668078</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>234.6652436985836</v>
       </c>
       <c r="K21" t="n">
-        <v>275.6180926012671</v>
+        <v>684.0582046434935</v>
       </c>
       <c r="L21" t="n">
-        <v>841.0568569541377</v>
+        <v>1026.830301443573</v>
       </c>
       <c r="M21" t="n">
-        <v>1047.789797313104</v>
+        <v>1138.808419704377</v>
       </c>
       <c r="N21" t="n">
-        <v>1613.228561665975</v>
+        <v>1263.115884749489</v>
       </c>
       <c r="O21" t="n">
-        <v>2178.667326018846</v>
+        <v>1362.390062952081</v>
       </c>
       <c r="P21" t="n">
-        <v>2245.777113134447</v>
+        <v>1921.333749955202</v>
       </c>
       <c r="Q21" t="n">
         <v>2258.190750909164</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1220.81136922561</v>
+        <v>45.69202136184813</v>
       </c>
       <c r="C22" t="n">
-        <v>1050.606251291599</v>
+        <v>45.69202136184813</v>
       </c>
       <c r="D22" t="n">
-        <v>894.9731381941142</v>
+        <v>45.69202136184813</v>
       </c>
       <c r="E22" t="n">
-        <v>894.9731381941142</v>
+        <v>45.69202136184813</v>
       </c>
       <c r="F22" t="n">
-        <v>894.9731381941142</v>
+        <v>45.69202136184813</v>
       </c>
       <c r="G22" t="n">
-        <v>894.9731381941142</v>
+        <v>45.69202136184813</v>
       </c>
       <c r="H22" t="n">
-        <v>745.6009330054635</v>
+        <v>45.69202136184813</v>
       </c>
       <c r="I22" t="n">
-        <v>745.6009330054635</v>
+        <v>45.69202136184813</v>
       </c>
       <c r="J22" t="n">
-        <v>763.4182124387071</v>
+        <v>63.50930079509175</v>
       </c>
       <c r="K22" t="n">
-        <v>923.459922129349</v>
+        <v>223.5510104857337</v>
       </c>
       <c r="L22" t="n">
-        <v>1187.665172172849</v>
+        <v>487.7562605292337</v>
       </c>
       <c r="M22" t="n">
-        <v>1479.474558518704</v>
+        <v>779.5656468750885</v>
       </c>
       <c r="N22" t="n">
-        <v>1765.673022926981</v>
+        <v>1065.764111283365</v>
       </c>
       <c r="O22" t="n">
-        <v>2023.523117284238</v>
+        <v>1323.614205640623</v>
       </c>
       <c r="P22" t="n">
-        <v>2224.812547442478</v>
+        <v>1524.903635798863</v>
       </c>
       <c r="Q22" t="n">
-        <v>2284.601068092406</v>
+        <v>1584.692156448791</v>
       </c>
       <c r="R22" t="n">
-        <v>2226.017687004649</v>
+        <v>1584.692156448791</v>
       </c>
       <c r="S22" t="n">
-        <v>2226.017687004649</v>
+        <v>1584.692156448791</v>
       </c>
       <c r="T22" t="n">
-        <v>1993.233177656965</v>
+        <v>1522.803500215143</v>
       </c>
       <c r="U22" t="n">
-        <v>1993.233177656965</v>
+        <v>1237.402170701521</v>
       </c>
       <c r="V22" t="n">
-        <v>1727.253832477789</v>
+        <v>971.4228255223454</v>
       </c>
       <c r="W22" t="n">
-        <v>1443.923430408967</v>
+        <v>688.092423453523</v>
       </c>
       <c r="X22" t="n">
-        <v>1443.923430408967</v>
+        <v>454.0121012365061</v>
       </c>
       <c r="Y22" t="n">
-        <v>1220.81136922561</v>
+        <v>230.9000400531494</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2495.761619698893</v>
+        <v>2412.620586816296</v>
       </c>
       <c r="C23" t="n">
-        <v>2102.586118201823</v>
+        <v>2019.445085319226</v>
       </c>
       <c r="D23" t="n">
-        <v>1717.144989418491</v>
+        <v>1634.003956535894</v>
       </c>
       <c r="E23" t="n">
-        <v>1314.561464535036</v>
+        <v>1231.420431652438</v>
       </c>
       <c r="F23" t="n">
-        <v>897.6670260650135</v>
+        <v>814.5259931824161</v>
       </c>
       <c r="G23" t="n">
-        <v>486.0353907628231</v>
+        <v>402.8943578802256</v>
       </c>
       <c r="H23" t="n">
         <v>177.6329251779935</v>
@@ -6031,10 +6031,10 @@
         <v>3599.058646674035</v>
       </c>
       <c r="X23" t="n">
-        <v>3292.747074489689</v>
+        <v>3209.606041607091</v>
       </c>
       <c r="Y23" t="n">
-        <v>2896.25636541029</v>
+        <v>2813.115332527692</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>98.32432015901973</v>
       </c>
       <c r="J24" t="n">
-        <v>98.32432015901973</v>
+        <v>287.2975424957552</v>
       </c>
       <c r="K24" t="n">
-        <v>139.2771690617033</v>
+        <v>736.6905034406651</v>
       </c>
       <c r="L24" t="n">
-        <v>797.1788093443294</v>
+        <v>1079.462600240745</v>
       </c>
       <c r="M24" t="n">
-        <v>1628.391828060633</v>
+        <v>1191.440718501548</v>
       </c>
       <c r="N24" t="n">
-        <v>1752.699293105745</v>
+        <v>1315.748183546661</v>
       </c>
       <c r="O24" t="n">
-        <v>2257.709941999259</v>
+        <v>1415.022361749253</v>
       </c>
       <c r="P24" t="n">
-        <v>2324.81972911486</v>
+        <v>1973.966048752373</v>
       </c>
       <c r="Q24" t="n">
-        <v>2337.233366889577</v>
+        <v>2310.823049706335</v>
       </c>
       <c r="R24" t="n">
         <v>2337.233366889577</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>445.6143059062894</v>
+        <v>98.32432015901973</v>
       </c>
       <c r="C25" t="n">
-        <v>275.4091879722786</v>
+        <v>98.32432015901973</v>
       </c>
       <c r="D25" t="n">
-        <v>265.8915662441508</v>
+        <v>98.32432015901973</v>
       </c>
       <c r="E25" t="n">
-        <v>265.8915662441508</v>
+        <v>98.32432015901973</v>
       </c>
       <c r="F25" t="n">
-        <v>265.8915662441508</v>
+        <v>98.32432015901973</v>
       </c>
       <c r="G25" t="n">
         <v>98.32432015901973</v>
@@ -6174,25 +6174,25 @@
         <v>1637.324455245963</v>
       </c>
       <c r="S25" t="n">
-        <v>1637.324455245963</v>
+        <v>1446.477558539118</v>
       </c>
       <c r="T25" t="n">
-        <v>1637.324455245963</v>
+        <v>1213.693049191434</v>
       </c>
       <c r="U25" t="n">
-        <v>1637.324455245963</v>
+        <v>1104.826450807391</v>
       </c>
       <c r="V25" t="n">
-        <v>1371.345110066787</v>
+        <v>838.8471056282156</v>
       </c>
       <c r="W25" t="n">
-        <v>1088.014707997964</v>
+        <v>555.5167035593932</v>
       </c>
       <c r="X25" t="n">
-        <v>853.9343857809473</v>
+        <v>321.4363813423764</v>
       </c>
       <c r="Y25" t="n">
-        <v>630.8223245975906</v>
+        <v>98.32432015901973</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2361.718610475008</v>
+        <v>2494.743580172067</v>
       </c>
       <c r="C26" t="n">
-        <v>1968.543108977938</v>
+        <v>2101.568078674998</v>
       </c>
       <c r="D26" t="n">
-        <v>1583.101980194606</v>
+        <v>1716.126949891665</v>
       </c>
       <c r="E26" t="n">
-        <v>1180.51845531115</v>
+        <v>1313.54342500821</v>
       </c>
       <c r="F26" t="n">
         <v>896.6489865381877</v>
@@ -6268,10 +6268,10 @@
         <v>3548.156670332747</v>
       </c>
       <c r="X26" t="n">
-        <v>3158.704065265803</v>
+        <v>3291.729034962863</v>
       </c>
       <c r="Y26" t="n">
-        <v>2762.213356186404</v>
+        <v>2895.238325883464</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>97.30628063219397</v>
       </c>
       <c r="J27" t="n">
-        <v>97.30628063219397</v>
+        <v>286.2795029689294</v>
       </c>
       <c r="K27" t="n">
-        <v>138.2591295348775</v>
+        <v>735.6724639138394</v>
       </c>
       <c r="L27" t="n">
-        <v>796.1607698175036</v>
+        <v>820.8482749098032</v>
       </c>
       <c r="M27" t="n">
-        <v>1627.373788533807</v>
+        <v>932.8263931706067</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.68125357892</v>
+        <v>1057.133858215719</v>
       </c>
       <c r="O27" t="n">
-        <v>2256.691902472433</v>
+        <v>1764.689002309292</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.801689588035</v>
+        <v>1972.948009225548</v>
       </c>
       <c r="Q27" t="n">
-        <v>2336.215327362751</v>
+        <v>2309.80501017951</v>
       </c>
       <c r="R27" t="n">
         <v>2336.215327362751</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>995.2038331722019</v>
+        <v>97.30628063219397</v>
       </c>
       <c r="C28" t="n">
-        <v>995.2038331722019</v>
+        <v>97.30628063219397</v>
       </c>
       <c r="D28" t="n">
-        <v>839.5707200747167</v>
+        <v>97.30628063219397</v>
       </c>
       <c r="E28" t="n">
-        <v>684.0119079339192</v>
+        <v>97.30628063219397</v>
       </c>
       <c r="F28" t="n">
-        <v>526.6859731468921</v>
+        <v>97.30628063219397</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1187270617611</v>
+        <v>97.30628063219397</v>
       </c>
       <c r="H28" t="n">
-        <v>209.7465218731104</v>
+        <v>97.30628063219397</v>
       </c>
       <c r="I28" t="n">
         <v>97.30628063219397</v>
@@ -6408,28 +6408,28 @@
         <v>1636.306415719137</v>
       </c>
       <c r="R28" t="n">
-        <v>1543.286803216115</v>
+        <v>1636.306415719137</v>
       </c>
       <c r="S28" t="n">
-        <v>1543.286803216115</v>
+        <v>1445.459519012292</v>
       </c>
       <c r="T28" t="n">
-        <v>1465.813181377125</v>
+        <v>1212.675009664608</v>
       </c>
       <c r="U28" t="n">
-        <v>1180.411851863503</v>
+        <v>927.2736801509868</v>
       </c>
       <c r="V28" t="n">
-        <v>1180.411851863503</v>
+        <v>661.2943349718111</v>
       </c>
       <c r="W28" t="n">
-        <v>1180.411851863503</v>
+        <v>377.9639329029887</v>
       </c>
       <c r="X28" t="n">
-        <v>1180.411851863503</v>
+        <v>377.9639329029887</v>
       </c>
       <c r="Y28" t="n">
-        <v>1180.411851863503</v>
+        <v>282.5142993234953</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2361.718610475008</v>
+        <v>2415.434975153094</v>
       </c>
       <c r="C29" t="n">
-        <v>1968.543108977938</v>
+        <v>2022.259473656024</v>
       </c>
       <c r="D29" t="n">
-        <v>1583.101980194606</v>
+        <v>1636.818344872692</v>
       </c>
       <c r="E29" t="n">
-        <v>1313.54342500821</v>
+        <v>1234.234819989236</v>
       </c>
       <c r="F29" t="n">
-        <v>896.6489865381877</v>
+        <v>817.3403815192139</v>
       </c>
       <c r="G29" t="n">
-        <v>485.0173512359973</v>
+        <v>405.7087462170235</v>
       </c>
       <c r="H29" t="n">
-        <v>176.6148856511678</v>
+        <v>97.30628063219397</v>
       </c>
       <c r="I29" t="n">
         <v>97.30628063219397</v>
@@ -6472,16 +6472,16 @@
         <v>1649.32696595505</v>
       </c>
       <c r="M29" t="n">
-        <v>2408.945099625686</v>
+        <v>2458.82903644015</v>
       </c>
       <c r="N29" t="n">
-        <v>3204.521278123388</v>
+        <v>3254.405214937851</v>
       </c>
       <c r="O29" t="n">
-        <v>3897.40367631376</v>
+        <v>3947.287613128223</v>
       </c>
       <c r="P29" t="n">
-        <v>4461.386646214303</v>
+        <v>4511.270583028767</v>
       </c>
       <c r="Q29" t="n">
         <v>4808.285623136604</v>
@@ -6499,16 +6499,16 @@
         <v>4261.262514660941</v>
       </c>
       <c r="V29" t="n">
-        <v>3919.155705364459</v>
+        <v>3972.872070042545</v>
       </c>
       <c r="W29" t="n">
-        <v>3548.156670332747</v>
+        <v>3601.873035010833</v>
       </c>
       <c r="X29" t="n">
-        <v>3158.704065265803</v>
+        <v>3212.420429943889</v>
       </c>
       <c r="Y29" t="n">
-        <v>2762.213356186404</v>
+        <v>2815.92972086449</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>97.30628063219397</v>
       </c>
       <c r="J30" t="n">
-        <v>97.30628063219397</v>
+        <v>286.2795029689294</v>
       </c>
       <c r="K30" t="n">
-        <v>138.2591295348775</v>
+        <v>735.6724639138394</v>
       </c>
       <c r="L30" t="n">
-        <v>796.1607698175036</v>
+        <v>1393.574104196465</v>
       </c>
       <c r="M30" t="n">
-        <v>1292.813896288545</v>
+        <v>1682.256578862241</v>
       </c>
       <c r="N30" t="n">
-        <v>2157.417724269842</v>
+        <v>1806.564043907354</v>
       </c>
       <c r="O30" t="n">
-        <v>2256.691902472433</v>
+        <v>1905.838222109946</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.801689588035</v>
+        <v>1972.948009225548</v>
       </c>
       <c r="Q30" t="n">
-        <v>2336.215327362751</v>
+        <v>2309.80501017951</v>
       </c>
       <c r="R30" t="n">
         <v>2336.215327362751</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>995.2038331722019</v>
+        <v>580.4704464507171</v>
       </c>
       <c r="C31" t="n">
-        <v>995.2038331722019</v>
+        <v>410.2653285167063</v>
       </c>
       <c r="D31" t="n">
-        <v>839.5707200747167</v>
+        <v>254.632215419221</v>
       </c>
       <c r="E31" t="n">
-        <v>684.0119079339192</v>
+        <v>254.632215419221</v>
       </c>
       <c r="F31" t="n">
-        <v>526.6859731468921</v>
+        <v>97.30628063219397</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1187270617611</v>
+        <v>97.30628063219397</v>
       </c>
       <c r="H31" t="n">
-        <v>209.7465218731104</v>
+        <v>97.30628063219397</v>
       </c>
       <c r="I31" t="n">
         <v>97.30628063219397</v>
@@ -6648,25 +6648,25 @@
         <v>1543.286803216115</v>
       </c>
       <c r="S31" t="n">
-        <v>1543.286803216115</v>
+        <v>1354.963182326871</v>
       </c>
       <c r="T31" t="n">
-        <v>1543.286803216115</v>
+        <v>1354.963182326871</v>
       </c>
       <c r="U31" t="n">
-        <v>1543.286803216115</v>
+        <v>1069.56185281325</v>
       </c>
       <c r="V31" t="n">
-        <v>1277.307458036939</v>
+        <v>803.5825076340737</v>
       </c>
       <c r="W31" t="n">
-        <v>1277.307458036939</v>
+        <v>803.5825076340737</v>
       </c>
       <c r="X31" t="n">
-        <v>1043.227135819923</v>
+        <v>803.5825076340737</v>
       </c>
       <c r="Y31" t="n">
-        <v>995.2038331722019</v>
+        <v>580.4704464507171</v>
       </c>
     </row>
     <row r="32">
@@ -6709,19 +6709,19 @@
         <v>1649.32696595505</v>
       </c>
       <c r="M32" t="n">
-        <v>2458.82903644015</v>
+        <v>2408.945099625686</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.405214937851</v>
+        <v>3204.521278123388</v>
       </c>
       <c r="O32" t="n">
-        <v>3947.287613128223</v>
+        <v>3897.40367631376</v>
       </c>
       <c r="P32" t="n">
-        <v>4511.270583028767</v>
+        <v>4461.386646214303</v>
       </c>
       <c r="Q32" t="n">
-        <v>4858.169559951068</v>
+        <v>4808.285623136604</v>
       </c>
       <c r="R32" t="n">
         <v>4865.314031609699</v>
@@ -6733,16 +6733,16 @@
         <v>4516.892754609557</v>
       </c>
       <c r="U32" t="n">
-        <v>4394.287484358</v>
+        <v>4261.262514660941</v>
       </c>
       <c r="V32" t="n">
-        <v>4052.180675061519</v>
+        <v>3919.155705364459</v>
       </c>
       <c r="W32" t="n">
-        <v>3681.181640029806</v>
+        <v>3548.156670332747</v>
       </c>
       <c r="X32" t="n">
-        <v>3291.729034962863</v>
+        <v>3158.704065265803</v>
       </c>
       <c r="Y32" t="n">
         <v>2895.238325883464</v>
@@ -6779,28 +6779,28 @@
         <v>97.30628063219397</v>
       </c>
       <c r="J33" t="n">
-        <v>97.30628063219397</v>
+        <v>286.2795029689294</v>
       </c>
       <c r="K33" t="n">
-        <v>546.6992415771039</v>
+        <v>735.6724639138394</v>
       </c>
       <c r="L33" t="n">
-        <v>1204.60088185973</v>
+        <v>1078.444560713919</v>
       </c>
       <c r="M33" t="n">
-        <v>1316.579000120533</v>
+        <v>1190.422678974722</v>
       </c>
       <c r="N33" t="n">
-        <v>1440.886465165646</v>
+        <v>1314.730144019835</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.441609259219</v>
+        <v>1414.004322222427</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.801689588035</v>
+        <v>1972.948009225548</v>
       </c>
       <c r="Q33" t="n">
-        <v>2336.215327362751</v>
+        <v>2309.80501017951</v>
       </c>
       <c r="R33" t="n">
         <v>2336.215327362751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3865.210484705159</v>
+        <v>559.5632327486692</v>
       </c>
       <c r="C34" t="n">
-        <v>3695.005366771148</v>
+        <v>559.5632327486692</v>
       </c>
       <c r="D34" t="n">
-        <v>3588.126342952323</v>
+        <v>559.5632327486692</v>
       </c>
       <c r="E34" t="n">
-        <v>3588.126342952323</v>
+        <v>404.0044206078717</v>
       </c>
       <c r="F34" t="n">
-        <v>3588.126342952323</v>
+        <v>246.6784858208446</v>
       </c>
       <c r="G34" t="n">
-        <v>3588.126342952323</v>
+        <v>246.6784858208446</v>
       </c>
       <c r="H34" t="n">
-        <v>3438.754137763672</v>
+        <v>97.30628063219397</v>
       </c>
       <c r="I34" t="n">
-        <v>3326.313896522756</v>
+        <v>97.30628063219397</v>
       </c>
       <c r="J34" t="n">
-        <v>3344.131175955999</v>
+        <v>115.1235600654376</v>
       </c>
       <c r="K34" t="n">
-        <v>3504.172885646641</v>
+        <v>275.1652697560795</v>
       </c>
       <c r="L34" t="n">
-        <v>3768.378135690141</v>
+        <v>539.3705197995796</v>
       </c>
       <c r="M34" t="n">
-        <v>4060.187522035996</v>
+        <v>831.1799061454344</v>
       </c>
       <c r="N34" t="n">
-        <v>4346.385986444273</v>
+        <v>1117.378370553711</v>
       </c>
       <c r="O34" t="n">
-        <v>4604.236080801531</v>
+        <v>1375.228464910969</v>
       </c>
       <c r="P34" t="n">
-        <v>4805.525510959771</v>
+        <v>1576.517895069209</v>
       </c>
       <c r="Q34" t="n">
-        <v>4865.314031609699</v>
+        <v>1636.306415719137</v>
       </c>
       <c r="R34" t="n">
-        <v>4772.294419106677</v>
+        <v>1636.306415719137</v>
       </c>
       <c r="S34" t="n">
-        <v>4772.294419106677</v>
+        <v>1445.459519012292</v>
       </c>
       <c r="T34" t="n">
-        <v>4539.509909758993</v>
+        <v>1445.459519012292</v>
       </c>
       <c r="U34" t="n">
-        <v>4539.509909758993</v>
+        <v>1160.058189498671</v>
       </c>
       <c r="V34" t="n">
-        <v>4273.530564579817</v>
+        <v>894.078844319495</v>
       </c>
       <c r="W34" t="n">
-        <v>4273.530564579817</v>
+        <v>894.078844319495</v>
       </c>
       <c r="X34" t="n">
-        <v>4273.530564579817</v>
+        <v>744.7712514399705</v>
       </c>
       <c r="Y34" t="n">
-        <v>4050.41850339646</v>
+        <v>744.7712514399705</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1246.832326313916</v>
+        <v>1339.331565498861</v>
       </c>
       <c r="C35" t="n">
-        <v>929.0136679016681</v>
+        <v>946.1560640017913</v>
       </c>
       <c r="D35" t="n">
-        <v>543.5725391183358</v>
+        <v>946.1560640017913</v>
       </c>
       <c r="E35" t="n">
         <v>543.5725391183358</v>
@@ -6937,28 +6937,28 @@
         <v>52.63229879717161</v>
       </c>
       <c r="J35" t="n">
-        <v>63.49513005455481</v>
+        <v>324.6479425263055</v>
       </c>
       <c r="K35" t="n">
-        <v>613.3659102456535</v>
+        <v>874.5187227174042</v>
       </c>
       <c r="L35" t="n">
-        <v>1264.690607860652</v>
+        <v>1323.519028519852</v>
       </c>
       <c r="M35" t="n">
-        <v>1789.518893647744</v>
+        <v>1438.792397878621</v>
       </c>
       <c r="N35" t="n">
-        <v>2440.843591262743</v>
+        <v>1558.929986314454</v>
       </c>
       <c r="O35" t="n">
-        <v>2545.618189510931</v>
+        <v>1663.704584562642</v>
       </c>
       <c r="P35" t="n">
-        <v>2612.615234511436</v>
+        <v>2227.687554463185</v>
       </c>
       <c r="Q35" t="n">
-        <v>2631.61493985858</v>
+        <v>2574.586531385486</v>
       </c>
       <c r="R35" t="n">
         <v>2631.61493985858</v>
@@ -6967,22 +6967,22 @@
         <v>2631.61493985858</v>
       </c>
       <c r="T35" t="n">
-        <v>2414.816816136425</v>
+        <v>2631.61493985858</v>
       </c>
       <c r="U35" t="n">
-        <v>2414.816816136425</v>
+        <v>2525.7696253566</v>
       </c>
       <c r="V35" t="n">
-        <v>2414.816816136425</v>
+        <v>2525.7696253566</v>
       </c>
       <c r="W35" t="n">
-        <v>2043.817781104712</v>
+        <v>2525.7696253566</v>
       </c>
       <c r="X35" t="n">
-        <v>2043.817781104712</v>
+        <v>2136.317020289657</v>
       </c>
       <c r="Y35" t="n">
-        <v>1647.327072025313</v>
+        <v>1739.826311210258</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>52.63229879717161</v>
       </c>
       <c r="J36" t="n">
-        <v>52.63229879717161</v>
+        <v>241.605521133907</v>
       </c>
       <c r="K36" t="n">
-        <v>93.58514769985513</v>
+        <v>690.998482078817</v>
       </c>
       <c r="L36" t="n">
-        <v>178.760958695819</v>
+        <v>1033.770578878896</v>
       </c>
       <c r="M36" t="n">
-        <v>830.0856563108176</v>
+        <v>1145.7486971397</v>
       </c>
       <c r="N36" t="n">
-        <v>1068.859323134893</v>
+        <v>1270.056162184813</v>
       </c>
       <c r="O36" t="n">
-        <v>1720.184020749892</v>
+        <v>1369.330340387405</v>
       </c>
       <c r="P36" t="n">
-        <v>2279.127707753012</v>
+        <v>1928.274027390525</v>
       </c>
       <c r="Q36" t="n">
-        <v>2291.541345527729</v>
+        <v>2265.131028344487</v>
       </c>
       <c r="R36" t="n">
         <v>2291.541345527729</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>535.7964646156947</v>
+        <v>332.9238095536128</v>
       </c>
       <c r="C37" t="n">
-        <v>365.5913466816839</v>
+        <v>162.7186916196021</v>
       </c>
       <c r="D37" t="n">
-        <v>209.9582335841987</v>
+        <v>162.7186916196021</v>
       </c>
       <c r="E37" t="n">
-        <v>209.9582335841987</v>
+        <v>162.7186916196021</v>
       </c>
       <c r="F37" t="n">
-        <v>52.63229879717161</v>
+        <v>162.7186916196021</v>
       </c>
       <c r="G37" t="n">
         <v>52.63229879717161</v>
@@ -7131,16 +7131,16 @@
         <v>1073.446595022809</v>
       </c>
       <c r="V37" t="n">
-        <v>807.4672498436331</v>
+        <v>1073.446595022809</v>
       </c>
       <c r="W37" t="n">
-        <v>535.7964646156947</v>
+        <v>790.1161929539865</v>
       </c>
       <c r="X37" t="n">
-        <v>535.7964646156947</v>
+        <v>556.0358707369695</v>
       </c>
       <c r="Y37" t="n">
-        <v>535.7964646156947</v>
+        <v>332.9238095536128</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>754.2102658790706</v>
+        <v>841.1253630520828</v>
       </c>
       <c r="C38" t="n">
-        <v>361.0347643820011</v>
+        <v>841.1253630520828</v>
       </c>
       <c r="D38" t="n">
-        <v>361.0347643820011</v>
+        <v>841.1253630520828</v>
       </c>
       <c r="E38" t="n">
-        <v>361.0347643820011</v>
+        <v>438.5418381686273</v>
       </c>
       <c r="F38" t="n">
-        <v>361.0347643820011</v>
+        <v>438.5418381686273</v>
       </c>
       <c r="G38" t="n">
-        <v>361.0347643820011</v>
+        <v>438.5418381686273</v>
       </c>
       <c r="H38" t="n">
-        <v>52.63229879717161</v>
+        <v>130.1393725837978</v>
       </c>
       <c r="I38" t="n">
         <v>52.63229879717161</v>
       </c>
       <c r="J38" t="n">
-        <v>63.49513005455481</v>
+        <v>324.6479425263055</v>
       </c>
       <c r="K38" t="n">
-        <v>112.7557350707468</v>
+        <v>874.5187227174042</v>
       </c>
       <c r="L38" t="n">
-        <v>197.8540167216545</v>
+        <v>959.6170043683119</v>
       </c>
       <c r="M38" t="n">
-        <v>849.1787143366531</v>
+        <v>1074.890373727081</v>
       </c>
       <c r="N38" t="n">
-        <v>1500.503411951652</v>
+        <v>1195.027962162914</v>
       </c>
       <c r="O38" t="n">
-        <v>2151.82810956665</v>
+        <v>1663.704584562642</v>
       </c>
       <c r="P38" t="n">
-        <v>2284.71596293628</v>
+        <v>2227.687554463185</v>
       </c>
       <c r="Q38" t="n">
-        <v>2631.61493985858</v>
+        <v>2574.586531385486</v>
       </c>
       <c r="R38" t="n">
         <v>2631.61493985858</v>
       </c>
       <c r="S38" t="n">
-        <v>2631.61493985858</v>
+        <v>2499.991786580594</v>
       </c>
       <c r="T38" t="n">
-        <v>2631.61493985858</v>
+        <v>2283.193662858439</v>
       </c>
       <c r="U38" t="n">
-        <v>2631.61493985858</v>
+        <v>2027.563422909822</v>
       </c>
       <c r="V38" t="n">
-        <v>2311.647360768522</v>
+        <v>2027.563422909822</v>
       </c>
       <c r="W38" t="n">
-        <v>1940.64832573681</v>
+        <v>2027.563422909822</v>
       </c>
       <c r="X38" t="n">
-        <v>1551.195720669866</v>
+        <v>1638.110817842879</v>
       </c>
       <c r="Y38" t="n">
-        <v>1154.705011590467</v>
+        <v>1241.62010876348</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>52.63229879717161</v>
       </c>
       <c r="J39" t="n">
-        <v>52.63229879717161</v>
+        <v>241.605521133907</v>
       </c>
       <c r="K39" t="n">
-        <v>502.0252597420815</v>
+        <v>690.998482078817</v>
       </c>
       <c r="L39" t="n">
-        <v>587.2010707380454</v>
+        <v>1033.770578878896</v>
       </c>
       <c r="M39" t="n">
-        <v>699.1791889988489</v>
+        <v>1145.7486971397</v>
       </c>
       <c r="N39" t="n">
-        <v>823.4866540439616</v>
+        <v>1270.056162184813</v>
       </c>
       <c r="O39" t="n">
-        <v>1395.740657570646</v>
+        <v>1369.330340387405</v>
       </c>
       <c r="P39" t="n">
-        <v>1954.684344573767</v>
+        <v>1928.274027390525</v>
       </c>
       <c r="Q39" t="n">
-        <v>2291.541345527729</v>
+        <v>2265.131028344487</v>
       </c>
       <c r="R39" t="n">
         <v>2291.541345527729</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>652.2171092458806</v>
+        <v>363.8242240354543</v>
       </c>
       <c r="C40" t="n">
-        <v>482.0119913118698</v>
+        <v>363.8242240354543</v>
       </c>
       <c r="D40" t="n">
-        <v>482.0119913118698</v>
+        <v>208.1911109379691</v>
       </c>
       <c r="E40" t="n">
-        <v>482.0119913118698</v>
+        <v>52.63229879717161</v>
       </c>
       <c r="F40" t="n">
-        <v>482.0119913118698</v>
+        <v>52.63229879717161</v>
       </c>
       <c r="G40" t="n">
-        <v>314.4447452267387</v>
+        <v>52.63229879717161</v>
       </c>
       <c r="H40" t="n">
-        <v>165.072540038088</v>
+        <v>52.63229879717161</v>
       </c>
       <c r="I40" t="n">
         <v>52.63229879717161</v>
@@ -7362,22 +7362,22 @@
         <v>1400.78553717727</v>
       </c>
       <c r="T40" t="n">
-        <v>1400.78553717727</v>
+        <v>1370.326354683826</v>
       </c>
       <c r="U40" t="n">
-        <v>1400.78553717727</v>
+        <v>1370.326354683826</v>
       </c>
       <c r="V40" t="n">
-        <v>1294.617511337555</v>
+        <v>1104.34700950465</v>
       </c>
       <c r="W40" t="n">
-        <v>1294.617511337555</v>
+        <v>821.016607435828</v>
       </c>
       <c r="X40" t="n">
-        <v>1060.537189120538</v>
+        <v>586.936285218811</v>
       </c>
       <c r="Y40" t="n">
-        <v>837.4251279371819</v>
+        <v>363.8242240354543</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1445.176880000841</v>
+        <v>1977.585491821002</v>
       </c>
       <c r="C41" t="n">
-        <v>1052.001378503772</v>
+        <v>1977.585491821002</v>
       </c>
       <c r="D41" t="n">
-        <v>666.5602497204395</v>
+        <v>1592.144363037669</v>
       </c>
       <c r="E41" t="n">
-        <v>263.976724836984</v>
+        <v>1189.560838154214</v>
       </c>
       <c r="F41" t="n">
-        <v>263.976724836984</v>
+        <v>772.6663996841916</v>
       </c>
       <c r="G41" t="n">
-        <v>263.976724836984</v>
+        <v>361.0347643820011</v>
       </c>
       <c r="H41" t="n">
         <v>52.63229879717161</v>
@@ -7411,52 +7411,52 @@
         <v>52.63229879717161</v>
       </c>
       <c r="J41" t="n">
-        <v>63.49513005455481</v>
+        <v>179.3519591868486</v>
       </c>
       <c r="K41" t="n">
-        <v>112.7557350707468</v>
+        <v>729.2227393779473</v>
       </c>
       <c r="L41" t="n">
-        <v>197.8540167216545</v>
+        <v>1380.547436992946</v>
       </c>
       <c r="M41" t="n">
-        <v>688.9544609078015</v>
+        <v>1495.820806351715</v>
       </c>
       <c r="N41" t="n">
-        <v>1340.2791585228</v>
+        <v>1615.958394787548</v>
       </c>
       <c r="O41" t="n">
-        <v>1991.603856137799</v>
+        <v>1720.732993035736</v>
       </c>
       <c r="P41" t="n">
-        <v>2555.586826038342</v>
+        <v>2284.71596293628</v>
       </c>
       <c r="Q41" t="n">
-        <v>2574.586531385486</v>
+        <v>2631.61493985858</v>
       </c>
       <c r="R41" t="n">
         <v>2631.61493985858</v>
       </c>
       <c r="S41" t="n">
-        <v>2631.61493985858</v>
+        <v>2499.991786580594</v>
       </c>
       <c r="T41" t="n">
-        <v>2631.61493985858</v>
+        <v>2283.193662858439</v>
       </c>
       <c r="U41" t="n">
-        <v>2631.61493985858</v>
+        <v>2283.193662858439</v>
       </c>
       <c r="V41" t="n">
-        <v>2631.61493985858</v>
+        <v>2283.193662858439</v>
       </c>
       <c r="W41" t="n">
-        <v>2631.61493985858</v>
+        <v>2283.193662858439</v>
       </c>
       <c r="X41" t="n">
-        <v>2242.162334791637</v>
+        <v>2283.193662858439</v>
       </c>
       <c r="Y41" t="n">
-        <v>1845.671625712238</v>
+        <v>2283.193662858439</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>52.63229879717161</v>
       </c>
       <c r="J42" t="n">
-        <v>52.63229879717161</v>
+        <v>241.605521133907</v>
       </c>
       <c r="K42" t="n">
-        <v>93.58514769985513</v>
+        <v>690.998482078817</v>
       </c>
       <c r="L42" t="n">
-        <v>744.9098453148538</v>
+        <v>1342.323179693816</v>
       </c>
       <c r="M42" t="n">
-        <v>1396.234542929853</v>
+        <v>1454.301297954619</v>
       </c>
       <c r="N42" t="n">
-        <v>1560.693223022412</v>
+        <v>1578.608762999732</v>
       </c>
       <c r="O42" t="n">
-        <v>2212.017920637411</v>
+        <v>1677.882941202324</v>
       </c>
       <c r="P42" t="n">
-        <v>2279.127707753012</v>
+        <v>1928.274027390525</v>
       </c>
       <c r="Q42" t="n">
-        <v>2291.541345527729</v>
+        <v>2265.131028344487</v>
       </c>
       <c r="R42" t="n">
         <v>2291.541345527729</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>377.5254796693297</v>
+        <v>220.1995448823027</v>
       </c>
       <c r="C43" t="n">
-        <v>377.5254796693297</v>
+        <v>220.1995448823027</v>
       </c>
       <c r="D43" t="n">
-        <v>377.5254796693297</v>
+        <v>220.1995448823027</v>
       </c>
       <c r="E43" t="n">
-        <v>377.5254796693297</v>
+        <v>220.1995448823027</v>
       </c>
       <c r="F43" t="n">
         <v>220.1995448823027</v>
@@ -7599,22 +7599,22 @@
         <v>1591.632433884114</v>
       </c>
       <c r="T43" t="n">
-        <v>1358.84792453643</v>
+        <v>1413.980621666775</v>
       </c>
       <c r="U43" t="n">
-        <v>1073.446595022809</v>
+        <v>1128.579292153153</v>
       </c>
       <c r="V43" t="n">
-        <v>807.4672498436331</v>
+        <v>862.5999469739776</v>
       </c>
       <c r="W43" t="n">
-        <v>524.1368477748108</v>
+        <v>862.5999469739776</v>
       </c>
       <c r="X43" t="n">
-        <v>377.5254796693297</v>
+        <v>628.5196247569606</v>
       </c>
       <c r="Y43" t="n">
-        <v>377.5254796693297</v>
+        <v>405.407563573604</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>259.6426720018749</v>
+        <v>1362.201121397012</v>
       </c>
       <c r="C44" t="n">
-        <v>259.6426720018749</v>
+        <v>969.0256198999427</v>
       </c>
       <c r="D44" t="n">
-        <v>52.63229879717161</v>
+        <v>969.0256198999427</v>
       </c>
       <c r="E44" t="n">
-        <v>52.63229879717161</v>
+        <v>566.4420950164872</v>
       </c>
       <c r="F44" t="n">
-        <v>52.63229879717161</v>
+        <v>149.547656546465</v>
       </c>
       <c r="G44" t="n">
         <v>52.63229879717161</v>
@@ -7648,25 +7648,25 @@
         <v>52.63229879717161</v>
       </c>
       <c r="J44" t="n">
-        <v>63.49513005455481</v>
+        <v>324.6479425263055</v>
       </c>
       <c r="K44" t="n">
-        <v>112.7557350707468</v>
+        <v>373.9085475424975</v>
       </c>
       <c r="L44" t="n">
-        <v>197.8540167216545</v>
+        <v>1025.233245157496</v>
       </c>
       <c r="M44" t="n">
-        <v>745.9828693808957</v>
+        <v>1676.557942772495</v>
       </c>
       <c r="N44" t="n">
-        <v>1397.307566995894</v>
+        <v>2327.882640387493</v>
       </c>
       <c r="O44" t="n">
-        <v>2048.632264610893</v>
+        <v>2432.657238635681</v>
       </c>
       <c r="P44" t="n">
-        <v>2612.615234511436</v>
+        <v>2499.654283636187</v>
       </c>
       <c r="Q44" t="n">
         <v>2631.61493985858</v>
@@ -7684,16 +7684,16 @@
         <v>2159.186576187808</v>
       </c>
       <c r="V44" t="n">
-        <v>1817.079766891326</v>
+        <v>2159.186576187808</v>
       </c>
       <c r="W44" t="n">
-        <v>1446.080731859614</v>
+        <v>2159.186576187808</v>
       </c>
       <c r="X44" t="n">
-        <v>1056.628126792671</v>
+        <v>2159.186576187808</v>
       </c>
       <c r="Y44" t="n">
-        <v>660.1374177132718</v>
+        <v>1762.695867108409</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>52.63229879717161</v>
       </c>
       <c r="J45" t="n">
-        <v>52.63229879717161</v>
+        <v>241.605521133907</v>
       </c>
       <c r="K45" t="n">
-        <v>93.58514769985513</v>
+        <v>690.998482078817</v>
       </c>
       <c r="L45" t="n">
-        <v>744.9098453148538</v>
+        <v>1033.770578878896</v>
       </c>
       <c r="M45" t="n">
-        <v>1396.234542929853</v>
+        <v>1145.7486971397</v>
       </c>
       <c r="N45" t="n">
-        <v>2047.559240544851</v>
+        <v>1270.056162184813</v>
       </c>
       <c r="O45" t="n">
-        <v>2212.017920637411</v>
+        <v>1369.330340387405</v>
       </c>
       <c r="P45" t="n">
-        <v>2279.127707753012</v>
+        <v>1928.274027390525</v>
       </c>
       <c r="Q45" t="n">
-        <v>2291.541345527729</v>
+        <v>2265.131028344487</v>
       </c>
       <c r="R45" t="n">
         <v>2291.541345527729</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>858.9225228416233</v>
+        <v>709.1350552337894</v>
       </c>
       <c r="C46" t="n">
-        <v>688.7174049076125</v>
+        <v>538.9299372997787</v>
       </c>
       <c r="D46" t="n">
-        <v>533.0842918101273</v>
+        <v>538.9299372997787</v>
       </c>
       <c r="E46" t="n">
-        <v>377.5254796693297</v>
+        <v>526.8976848579805</v>
       </c>
       <c r="F46" t="n">
-        <v>220.1995448823027</v>
+        <v>369.5717500709534</v>
       </c>
       <c r="G46" t="n">
-        <v>52.63229879717161</v>
+        <v>202.0045039858223</v>
       </c>
       <c r="H46" t="n">
         <v>52.63229879717161</v>
@@ -7830,28 +7830,28 @@
         <v>1591.632433884114</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.612821381093</v>
+        <v>1591.632433884114</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.612821381093</v>
+        <v>1400.78553717727</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.612821381093</v>
+        <v>1400.78553717727</v>
       </c>
       <c r="U46" t="n">
-        <v>1213.211491867471</v>
+        <v>1400.78553717727</v>
       </c>
       <c r="V46" t="n">
-        <v>947.2321466882955</v>
+        <v>1400.78553717727</v>
       </c>
       <c r="W46" t="n">
-        <v>947.2321466882955</v>
+        <v>1117.455135108447</v>
       </c>
       <c r="X46" t="n">
-        <v>947.2321466882955</v>
+        <v>1117.455135108447</v>
       </c>
       <c r="Y46" t="n">
-        <v>858.9225228416233</v>
+        <v>894.3430739250907</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>130.4053320276681</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>155.7838972645594</v>
       </c>
       <c r="L2" t="n">
         <v>165.9736638158137</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>161.9363843058645</v>
       </c>
       <c r="N2" t="n">
-        <v>161.3298240459214</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>163.0269413262472</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>157.2241925037142</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8063,13 +8063,13 @@
         <v>102.3224294186553</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>102.7858409422402</v>
       </c>
       <c r="M3" t="n">
-        <v>105.1126161346339</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>97.58344556230394</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
@@ -8078,7 +8078,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>103.1994858640513</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8139,10 +8139,10 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K4" t="n">
-        <v>96.58411189616999</v>
+        <v>92.61318650883278</v>
       </c>
       <c r="L4" t="n">
-        <v>99.88637229094216</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M4" t="n">
         <v>90.30175956594327</v>
@@ -8151,13 +8151,13 @@
         <v>95.72109798772357</v>
       </c>
       <c r="O4" t="n">
-        <v>89.9967499936978</v>
+        <v>102.7222440790198</v>
       </c>
       <c r="P4" t="n">
         <v>102.2486967172679</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>130.4053320276681</v>
       </c>
       <c r="K5" t="n">
-        <v>155.7838972645594</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>165.9736638158137</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>161.3298240459214</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>162.2893315094184</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>163.0269413262472</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>156.7100311265294</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>95.16995141865534</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>101.8082680414706</v>
       </c>
       <c r="L6" t="n">
-        <v>102.7858409422402</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>104.5984547574492</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>98.09760693948866</v>
       </c>
       <c r="O6" t="n">
         <v>105.4130529742109</v>
@@ -8315,7 +8315,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.713647241236</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8376,25 +8376,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K7" t="n">
-        <v>83.85861781084799</v>
+        <v>96.58411189616999</v>
       </c>
       <c r="L7" t="n">
-        <v>87.67503958280489</v>
+        <v>100.4005336681269</v>
       </c>
       <c r="M7" t="n">
-        <v>99.05632826392807</v>
+        <v>102.5130922740805</v>
       </c>
       <c r="N7" t="n">
-        <v>95.72109798772357</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O7" t="n">
-        <v>102.7222440790198</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P7" t="n">
         <v>102.2486967172679</v>
       </c>
       <c r="Q7" t="n">
-        <v>101.9350150692923</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>129.8911706504834</v>
       </c>
       <c r="K8" t="n">
-        <v>155.7838972645594</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>165.459502438629</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>162.4505456830493</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>161.8439854231061</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>162.2893315094184</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>157.2241925037142</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8534,19 +8534,19 @@
         <v>95.16995141865534</v>
       </c>
       <c r="K9" t="n">
-        <v>102.3224294186553</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>102.2716795650555</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>104.5984547574492</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>105.4130529742109</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
@@ -8616,22 +8616,22 @@
         <v>83.85861781084799</v>
       </c>
       <c r="L10" t="n">
-        <v>100.4005336681269</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M10" t="n">
-        <v>103.0272536512653</v>
+        <v>99.05632826392807</v>
       </c>
       <c r="N10" t="n">
-        <v>95.20693661053885</v>
+        <v>95.72109798772357</v>
       </c>
       <c r="O10" t="n">
         <v>102.7222440790198</v>
       </c>
       <c r="P10" t="n">
-        <v>89.52320263194594</v>
+        <v>102.2486967172679</v>
       </c>
       <c r="Q10" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,28 +8692,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>15.33552135670502</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>485.1924067696594</v>
+        <v>485.1924067696595</v>
       </c>
       <c r="M11" t="n">
-        <v>454.712520196062</v>
+        <v>40.88269900885257</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>465.3173394996795</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
-        <v>44.91316199872689</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,28 +8771,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>485.1140942999058</v>
+        <v>260.1982684890067</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>71.17428151681275</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>470.8733193437157</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
-        <v>44.3367168417802</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>485.1924067696594</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>449.7991675929674</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>465.3173394996795</v>
+        <v>24.06912103099927</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
-        <v>65.16203595852637</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>5.819972366658533</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>340.344109982808</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>458.0410566586535</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>445.5871710179372</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>470.8733193437157</v>
+        <v>260.1982684890057</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
-        <v>44.33671684178019</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>485.1924067696594</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>412.8849594635763</v>
       </c>
       <c r="P17" t="n">
-        <v>429.6985374414295</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>5.819972366658533</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>235.3792362173105</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>485.1140942999058</v>
+        <v>286.8753565528862</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>470.8733193437157</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>44.33671684178019</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>237.0399599287267</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
         <v>485.1924067696594</v>
       </c>
       <c r="M20" t="n">
-        <v>454.7125201960619</v>
+        <v>40.88269900885251</v>
       </c>
       <c r="N20" t="n">
-        <v>449.7991675929674</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9482,25 +9482,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>485.1140942999058</v>
+        <v>260.1982684890058</v>
       </c>
       <c r="M21" t="n">
-        <v>95.71194151329605</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>445.5871710179372</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>470.8733193437157</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,31 +9716,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>5.819972366658533</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>260.1982684890058</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.8348188797188</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>44.33671684178019</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>5.819972366658533</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>409.8348188797188</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>142.57496949561</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>44.33671684178019</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
-        <v>650.8532972847141</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N29" t="n">
         <v>682.2612020826953</v>
@@ -10132,7 +10132,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>280.8235704653466</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>5.819972366658533</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>388.5606143537752</v>
+        <v>178.4892488939116</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>44.33671684178019</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
-        <v>701.2411122488187</v>
+        <v>650.8532972847141</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
@@ -10372,7 +10372,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>52.12980003774821</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>5.819972366658533</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>260.1982684890058</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>109.3437305183981</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>44.33671684178019</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>571.9458747112029</v>
+        <v>367.5778021732724</v>
       </c>
       <c r="M35" t="n">
-        <v>413.6918347760837</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>536.552635534511</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>44.91316199872688</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>5.819972366658533</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>260.1982684890057</v>
       </c>
       <c r="M36" t="n">
-        <v>544.7945246001971</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>115.6224260393564</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.6267872852592</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>44.33671684178019</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>541.4659881376053</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>536.5526355345108</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>552.070807441223</v>
+        <v>367.5778021732725</v>
       </c>
       <c r="P38" t="n">
-        <v>66.55637209002376</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>44.91316199872688</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>5.819972366658533</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>260.1982684890057</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>477.7573993172653</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -10925,7 +10925,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>44.33671684178019</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>117.0271001336301</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>571.9458747112029</v>
       </c>
       <c r="M41" t="n">
-        <v>379.6233079064421</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>536.552635534511</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>552.070807441223</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>44.91316199872688</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>5.819972366658533</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>571.8675622414493</v>
       </c>
       <c r="M42" t="n">
-        <v>544.7945246001971</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>40.5567828762093</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.6267872852592</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>185.1326253258584</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>44.33671684178019</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>571.9458747112029</v>
       </c>
       <c r="M44" t="n">
-        <v>437.2277609095676</v>
+        <v>541.4659881376053</v>
       </c>
       <c r="N44" t="n">
-        <v>536.552635534511</v>
+        <v>536.5526355345108</v>
       </c>
       <c r="O44" t="n">
-        <v>552.070807441223</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>502.0059847475129</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>114.10197058106</v>
       </c>
       <c r="R44" t="n">
         <v>44.91316199872688</v>
@@ -11375,31 +11375,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>5.819972366658533</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>571.8675622414493</v>
+        <v>260.1982684890057</v>
       </c>
       <c r="M45" t="n">
-        <v>544.7945246001971</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>532.3406389594807</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>65.84293120198772</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
-        <v>44.33671684178019</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>407.5153189491685</v>
       </c>
       <c r="H11" t="n">
-        <v>305.3184409289812</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51551896878405</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.3069217452062</v>
       </c>
       <c r="T11" t="n">
-        <v>214.6301424849342</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.0739375491307</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>264.5605026438582</v>
       </c>
       <c r="Y11" t="n">
-        <v>229.1480330076465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8915736242797</v>
+        <v>157.3632130842694</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>111.3158388285073</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>92.08941637799136</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1074133745774</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5473162184852</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,25 +23497,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>78.42745131243771</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>407.5153189491685</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>78.51551896878404</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.3069217452061</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>214.6301424849342</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.0739375491307</v>
@@ -23557,13 +23557,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>70.34948763624919</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8915736242797</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.8784831367641</v>
+        <v>15.24700266777353</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>111.3158388285073</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>92.08941637799134</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>188.9384277397761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>230.4566642542072</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5473162184852</v>
       </c>
       <c r="V16" t="n">
-        <v>251.1500189264038</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>113.0310285476238</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>225.736109137738</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>407.5153189491685</v>
       </c>
       <c r="H17" t="n">
-        <v>305.3184409289812</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>78.51551896878404</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>130.3069217452061</v>
       </c>
       <c r="T17" t="n">
         <v>214.6301424849342</v>
@@ -23791,13 +23791,13 @@
         <v>253.0739375491307</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>91.37474660677123</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.8784831367641</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>111.3158388285073</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>188.9384277397761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.4566642542072</v>
       </c>
       <c r="U19" t="n">
-        <v>207.2444969042659</v>
+        <v>282.5473162184852</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>375.80777362921</v>
+        <v>278.2676132226699</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>305.3184409289812</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>78.51551896878404</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3069217452061</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>214.6301424849342</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.0739375491307</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24144,7 +24144,7 @@
         <v>165.8915736242797</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.8784831367641</v>
       </c>
       <c r="I22" t="n">
         <v>111.3158388285073</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.09186910111141</v>
+        <v>92.08941637799134</v>
       </c>
       <c r="S22" t="n">
         <v>188.9384277397761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>169.1868945828955</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5473162184852</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>82.30962255377142</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>82.30962255377119</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>144.6543364556639</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24378,7 +24378,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.8915736242797</v>
       </c>
       <c r="H25" t="n">
         <v>147.8784831367641</v>
@@ -24414,13 +24414,13 @@
         <v>92.08941637799134</v>
       </c>
       <c r="S25" t="n">
-        <v>188.9384277397761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>230.4566642542072</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5473162184852</v>
+        <v>174.7693838182828</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>131.694720000089</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>131.6947200000888</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.8915736242797</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.8784831367641</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>111.3158388285073</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>92.08941637799134</v>
       </c>
       <c r="S28" t="n">
-        <v>188.9384277397761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>153.7577786336066</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>126.3858033278246</v>
       </c>
     </row>
     <row r="29">
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>131.6947200000889</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.51551896878404</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>53.17920103130518</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.8915736242797</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.8784831367641</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>111.3158388285073</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>188.9384277397761</v>
+        <v>2.498043059424305</v>
       </c>
       <c r="T31" t="n">
         <v>230.4566642542072</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5473162184852</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>173.3378709502797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>131.6947200000891</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>131.6947200000888</v>
       </c>
     </row>
     <row r="33">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>48.26654838587334</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.8915736242797</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>111.3158388285073</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>92.08941637799134</v>
       </c>
       <c r="S34" t="n">
-        <v>188.9384277397761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.4566642542072</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5473162184852</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>83.92500204411741</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>74.6032746539729</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -25207,19 +25207,19 @@
         <v>130.3069217452061</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.6301424849342</v>
       </c>
       <c r="U35" t="n">
-        <v>253.0739375491307</v>
+        <v>148.2870761921702</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.8915736242797</v>
+        <v>56.90604473007362</v>
       </c>
       <c r="H37" t="n">
         <v>147.8784831367641</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>11.54302067247517</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>78.51551896878404</v>
+        <v>1.783515920024172</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3069217452061</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>214.6301424849342</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0739375491307</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>21.91783790435909</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.8915736242797</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.8784831367641</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>111.3158388285073</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>230.4566642542072</v>
+        <v>200.302073585698</v>
       </c>
       <c r="U40" t="n">
         <v>282.5473162184852</v>
       </c>
       <c r="V40" t="n">
-        <v>158.2132061460666</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>93.93770892722034</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>407.5153189491685</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>96.08745914956691</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>78.51551896878404</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3069217452061</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.6301424849342</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.0739375491307</v>
@@ -25693,10 +25693,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25797,7 +25797,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>188.9384277397761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>54.58137015904109</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>86.59426457042048</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>176.6464480228427</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>407.5153189491685</v>
+        <v>311.5691147773681</v>
       </c>
       <c r="H44" t="n">
         <v>305.3184409289812</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>142.0912941020093</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.8784831367641</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>111.3158388285073</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>92.08941637799134</v>
       </c>
       <c r="S46" t="n">
-        <v>188.9384277397761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>230.4566642542072</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5473162184852</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.4544129633176</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>544443.7322245567</v>
+        <v>544443.732224557</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>544443.732224557</v>
+        <v>544443.7322245569</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>544443.7322245569</v>
+        <v>544443.732224557</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>799668.0089746044</v>
+        <v>799668.0089746047</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>799668.0089746044</v>
+        <v>799668.0089746045</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>578762.2967824094</v>
+        <v>578762.2967824093</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>578762.2967824097</v>
+        <v>578762.2967824094</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540996.5342800701</v>
+        <v>540996.5342800702</v>
       </c>
       <c r="C2" t="n">
         <v>540996.5342800702</v>
@@ -26322,28 +26322,28 @@
         <v>540996.5342800701</v>
       </c>
       <c r="E2" t="n">
-        <v>356519.5838944985</v>
+        <v>356519.5838944986</v>
       </c>
       <c r="F2" t="n">
         <v>356519.5838944986</v>
       </c>
       <c r="G2" t="n">
-        <v>356519.5838944985</v>
+        <v>356519.5838944986</v>
       </c>
       <c r="H2" t="n">
-        <v>356519.5838944988</v>
+        <v>356519.5838944987</v>
       </c>
       <c r="I2" t="n">
         <v>508945.1949291512</v>
       </c>
       <c r="J2" t="n">
-        <v>505996.9046116058</v>
+        <v>505996.9046116059</v>
       </c>
       <c r="K2" t="n">
-        <v>505996.904611606</v>
+        <v>505996.9046116059</v>
       </c>
       <c r="L2" t="n">
-        <v>505996.9046116057</v>
+        <v>505996.9046116062</v>
       </c>
       <c r="M2" t="n">
         <v>376618.9535402349</v>
@@ -26355,7 +26355,7 @@
         <v>376618.9535402349</v>
       </c>
       <c r="P2" t="n">
-        <v>376618.9535402349</v>
+        <v>376618.953540235</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4264.605754355376</v>
+        <v>4264.605754355363</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>365178.2041540099</v>
       </c>
       <c r="C4" t="n">
-        <v>365178.20415401</v>
+        <v>365178.2041540099</v>
       </c>
       <c r="D4" t="n">
         <v>365178.20415401</v>
       </c>
       <c r="E4" t="n">
-        <v>69554.1096181695</v>
+        <v>69554.10961816949</v>
       </c>
       <c r="F4" t="n">
         <v>69554.10961816949</v>
@@ -26435,7 +26435,7 @@
         <v>69554.10961816949</v>
       </c>
       <c r="H4" t="n">
-        <v>69554.10961816947</v>
+        <v>69554.10961816949</v>
       </c>
       <c r="I4" t="n">
         <v>126889.3222850149</v>
@@ -26447,16 +26447,16 @@
         <v>125780.316710344</v>
       </c>
       <c r="L4" t="n">
-        <v>125780.316710344</v>
+        <v>125780.3167103439</v>
       </c>
       <c r="M4" t="n">
-        <v>77114.52958490224</v>
+        <v>77114.52958490225</v>
       </c>
       <c r="N4" t="n">
+        <v>77114.52958490225</v>
+      </c>
+      <c r="O4" t="n">
         <v>77114.52958490222</v>
-      </c>
-      <c r="O4" t="n">
-        <v>77114.52958490225</v>
       </c>
       <c r="P4" t="n">
         <v>77114.52958490224</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137152.4143313172</v>
+        <v>137152.4143313174</v>
       </c>
       <c r="C6" t="n">
         <v>141417.0200856727</v>
       </c>
       <c r="D6" t="n">
-        <v>141417.0200856726</v>
+        <v>141417.0200856725</v>
       </c>
       <c r="E6" t="n">
-        <v>-225642.7862841432</v>
+        <v>-226257.709452095</v>
       </c>
       <c r="F6" t="n">
-        <v>244019.6847447742</v>
+        <v>243404.7615768222</v>
       </c>
       <c r="G6" t="n">
-        <v>244019.6847447741</v>
+        <v>243404.7615768223</v>
       </c>
       <c r="H6" t="n">
-        <v>244019.6847447743</v>
+        <v>243404.7615768223</v>
       </c>
       <c r="I6" t="n">
-        <v>124159.1169211974</v>
+        <v>124052.2791233611</v>
       </c>
       <c r="J6" t="n">
-        <v>298043.961324244</v>
+        <v>297927.2958920158</v>
       </c>
       <c r="K6" t="n">
-        <v>298043.9613242442</v>
+        <v>297927.2958920159</v>
       </c>
       <c r="L6" t="n">
-        <v>298043.961324244</v>
+        <v>297927.2958920161</v>
       </c>
       <c r="M6" t="n">
-        <v>251284.0235729319</v>
+        <v>250736.098303799</v>
       </c>
       <c r="N6" t="n">
-        <v>251284.023572932</v>
+        <v>250736.0983037993</v>
       </c>
       <c r="O6" t="n">
-        <v>251284.0235729318</v>
+        <v>250736.0983037991</v>
       </c>
       <c r="P6" t="n">
-        <v>251284.0235729319</v>
+        <v>250736.0983037992</v>
       </c>
     </row>
   </sheetData>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>396.3056338715548</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>124.2282516531378</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>24.88749049201128</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>153.6398043180083</v>
       </c>
       <c r="T2" t="n">
-        <v>219.0881091827027</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27463,10 +27463,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>116.0625836194125</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3565318948991</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -27475,10 +27475,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>76.20582704505347</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>36.16788736288552</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>10.9523785855941</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>120.8558762438078</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>196.753896697793</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>207.5891075273216</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>170.6304444190663</v>
       </c>
       <c r="C4" t="n">
-        <v>157.294451564319</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>141.3512878811884</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>141.2777299340675</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27557,10 +27557,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>119.0379870239709</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>17.34899338683707</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>111.4533642833972</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27605,7 +27605,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.1554464862011</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>397.8225127665252</v>
       </c>
       <c r="H5" t="n">
-        <v>308.1167258438522</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27666,7 +27666,7 @@
         <v>24.88749049201128</v>
       </c>
       <c r="S5" t="n">
-        <v>162.6709322748852</v>
+        <v>152.1229254230379</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27700,13 +27700,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>117.5794625143828</v>
       </c>
       <c r="E6" t="n">
-        <v>122.3565318948991</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>110.4619939703775</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -27715,7 +27715,7 @@
         <v>74.68894815008308</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>36.16788736288552</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>120.8558762438078</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -27757,7 +27757,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>216.6074582176944</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -27788,13 +27788,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>153.8460192762269</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>141.198271442799</v>
       </c>
       <c r="I7" t="n">
-        <v>119.0379870239709</v>
+        <v>120.5548659189413</v>
       </c>
       <c r="J7" t="n">
         <v>17.34899338683707</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>109.9364853884268</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27842,7 +27842,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.6723253811714</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>383.7643041689609</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>370.3781023051473</v>
       </c>
       <c r="E8" t="n">
-        <v>385.8321955492989</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.8225127665252</v>
+        <v>396.3056338715548</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27912,7 +27912,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>325.9602471181948</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -27943,10 +27943,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F9" t="n">
-        <v>111.9788728653479</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>106.1337256635322</v>
+        <v>107.6506045585026</v>
       </c>
       <c r="H9" t="n">
         <v>74.68894815008308</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>10.9523785855941</v>
       </c>
       <c r="S9" t="n">
         <v>133.5813703291298</v>
@@ -28031,10 +28031,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>120.5548659189413</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>17.34899338683707</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>269.8589097551961</v>
       </c>
       <c r="V10" t="n">
-        <v>250.594057642062</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>269.2884828577825</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="L2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="N2" t="n">
-        <v>12.21133270813727</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>12.725494085322</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="M3" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>12.21133270813727</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>12.725494085322</v>
+        <v>8.754568697984791</v>
       </c>
       <c r="L4" t="n">
-        <v>12.21133270813727</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -34871,13 +34871,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="P4" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>12.725494085322</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="Q5" t="n">
         <v>12.21133270813727</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="M6" t="n">
-        <v>12.21133270813727</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>12.725494085322</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="M7" t="n">
-        <v>8.754568697984791</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="N7" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.456764010152483</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="K8" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>12.21133270813727</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>12.725494085322</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>12.21133270813727</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="L9" t="n">
-        <v>12.21133270813727</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35336,22 +35336,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8.754568697984791</v>
+      </c>
+      <c r="N10" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="M10" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="N10" t="n">
-        <v>12.21133270813727</v>
       </c>
       <c r="O10" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>274.7632764940747</v>
       </c>
       <c r="K11" t="n">
-        <v>65.09370824174735</v>
+        <v>555.4250304960593</v>
       </c>
       <c r="L11" t="n">
         <v>571.1502670231016</v>
       </c>
       <c r="M11" t="n">
-        <v>571.1502670231016</v>
+        <v>157.3204458358923</v>
       </c>
       <c r="N11" t="n">
         <v>121.3510994301342</v>
       </c>
       <c r="O11" t="n">
-        <v>571.1502670231016</v>
+        <v>105.8329275234221</v>
       </c>
       <c r="P11" t="n">
         <v>67.67378282879363</v>
       </c>
       <c r="Q11" t="n">
-        <v>19.19162156277176</v>
+        <v>350.403006992223</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>57.60445300312571</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>190.8820427643792</v>
       </c>
       <c r="K12" t="n">
-        <v>41.36651404311463</v>
+        <v>453.9322837827373</v>
       </c>
       <c r="L12" t="n">
-        <v>571.1502670231016</v>
+        <v>346.2344412122025</v>
       </c>
       <c r="M12" t="n">
         <v>113.109210364448</v>
       </c>
       <c r="N12" t="n">
-        <v>196.7373775219771</v>
+        <v>125.5630960051643</v>
       </c>
       <c r="O12" t="n">
-        <v>571.1502670231016</v>
+        <v>100.2769476793859</v>
       </c>
       <c r="P12" t="n">
         <v>564.5895828314347</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.5390280552695</v>
+        <v>340.2595969231941</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>26.67708806388028</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>274.7632764940747</v>
       </c>
       <c r="K14" t="n">
-        <v>49.75818688504236</v>
+        <v>555.4250304960593</v>
       </c>
       <c r="L14" t="n">
-        <v>571.1502670231016</v>
+        <v>85.95786025344213</v>
       </c>
       <c r="M14" t="n">
         <v>116.4377468270397</v>
       </c>
       <c r="N14" t="n">
-        <v>571.1502670231016</v>
+        <v>121.3510994301342</v>
       </c>
       <c r="O14" t="n">
-        <v>571.1502670231016</v>
+        <v>129.9020485544214</v>
       </c>
       <c r="P14" t="n">
-        <v>67.67378282879369</v>
+        <v>569.6797675763066</v>
       </c>
       <c r="Q14" t="n">
-        <v>19.19162156277179</v>
+        <v>350.4030069922231</v>
       </c>
       <c r="R14" t="n">
-        <v>20.2488739597995</v>
+        <v>57.60445300312573</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>190.8820427643792</v>
       </c>
       <c r="K15" t="n">
-        <v>41.36651404311466</v>
+        <v>453.9322837827373</v>
       </c>
       <c r="L15" t="n">
-        <v>426.3802827060038</v>
+        <v>86.0361727231958</v>
       </c>
       <c r="M15" t="n">
-        <v>571.1502670231016</v>
+        <v>113.109210364448</v>
       </c>
       <c r="N15" t="n">
-        <v>571.1502670231016</v>
+        <v>125.5630960051644</v>
       </c>
       <c r="O15" t="n">
-        <v>571.1502670231016</v>
+        <v>360.4752161683916</v>
       </c>
       <c r="P15" t="n">
-        <v>67.78766375313268</v>
+        <v>564.5895828314347</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.53902805526951</v>
+        <v>340.2595969231941</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>26.67708806388028</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>555.4250304960593</v>
       </c>
       <c r="L17" t="n">
-        <v>571.1502670231016</v>
+        <v>85.95786025344213</v>
       </c>
       <c r="M17" t="n">
         <v>116.4377468270397</v>
@@ -35898,10 +35898,10 @@
         <v>121.3510994301342</v>
       </c>
       <c r="O17" t="n">
-        <v>105.8329275234221</v>
+        <v>518.7178869869983</v>
       </c>
       <c r="P17" t="n">
-        <v>497.3723202702232</v>
+        <v>569.6797675763066</v>
       </c>
       <c r="Q17" t="n">
         <v>19.19162156277179</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>190.8820427643792</v>
       </c>
       <c r="K18" t="n">
-        <v>276.7457502604252</v>
+        <v>453.9322837827373</v>
       </c>
       <c r="L18" t="n">
-        <v>571.1502670231016</v>
+        <v>372.911529276082</v>
       </c>
       <c r="M18" t="n">
         <v>113.109210364448</v>
@@ -35977,16 +35977,16 @@
         <v>125.5630960051644</v>
       </c>
       <c r="O18" t="n">
-        <v>571.1502670231016</v>
+        <v>100.2769476793859</v>
       </c>
       <c r="P18" t="n">
         <v>564.5895828314347</v>
       </c>
       <c r="Q18" t="n">
-        <v>12.53902805526951</v>
+        <v>340.2595969231941</v>
       </c>
       <c r="R18" t="n">
-        <v>26.67708806388028</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>10.9725568256396</v>
+        <v>274.7632764940747</v>
       </c>
       <c r="K20" t="n">
-        <v>286.7981468137691</v>
+        <v>555.4250304960593</v>
       </c>
       <c r="L20" t="n">
         <v>571.1502670231016</v>
       </c>
       <c r="M20" t="n">
-        <v>571.1502670231016</v>
+        <v>157.3204458358923</v>
       </c>
       <c r="N20" t="n">
-        <v>571.1502670231016</v>
+        <v>121.3510994301342</v>
       </c>
       <c r="O20" t="n">
         <v>105.8329275234221</v>
@@ -36141,7 +36141,7 @@
         <v>67.67378282879369</v>
       </c>
       <c r="Q20" t="n">
-        <v>19.19162156277179</v>
+        <v>350.4030069922231</v>
       </c>
       <c r="R20" t="n">
         <v>57.60445300312573</v>
@@ -36202,25 +36202,25 @@
         <v>190.8820427643792</v>
       </c>
       <c r="K21" t="n">
-        <v>41.36651404311466</v>
+        <v>453.9322837827373</v>
       </c>
       <c r="L21" t="n">
-        <v>571.1502670231016</v>
+        <v>346.2344412122016</v>
       </c>
       <c r="M21" t="n">
-        <v>208.8211518777441</v>
+        <v>113.109210364448</v>
       </c>
       <c r="N21" t="n">
-        <v>571.1502670231016</v>
+        <v>125.5630960051644</v>
       </c>
       <c r="O21" t="n">
-        <v>571.1502670231016</v>
+        <v>100.2769476793859</v>
       </c>
       <c r="P21" t="n">
-        <v>67.78766375313268</v>
+        <v>564.5895828314347</v>
       </c>
       <c r="Q21" t="n">
-        <v>12.53902805526951</v>
+        <v>340.2595969231941</v>
       </c>
       <c r="R21" t="n">
         <v>26.67708806388028</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>190.8820427643792</v>
       </c>
       <c r="K24" t="n">
-        <v>41.36651404311466</v>
+        <v>453.9322837827373</v>
       </c>
       <c r="L24" t="n">
-        <v>664.5471113965921</v>
+        <v>346.2344412122016</v>
       </c>
       <c r="M24" t="n">
-        <v>839.6091098144479</v>
+        <v>113.109210364448</v>
       </c>
       <c r="N24" t="n">
         <v>125.5630960051644</v>
       </c>
       <c r="O24" t="n">
-        <v>510.1117665591048</v>
+        <v>100.2769476793859</v>
       </c>
       <c r="P24" t="n">
-        <v>67.78766375313268</v>
+        <v>564.5895828314347</v>
       </c>
       <c r="Q24" t="n">
-        <v>12.53902805526951</v>
+        <v>340.2595969231941</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>26.67708806388028</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>190.8820427643792</v>
       </c>
       <c r="K27" t="n">
-        <v>41.36651404311466</v>
+        <v>453.9322837827373</v>
       </c>
       <c r="L27" t="n">
-        <v>664.5471113965921</v>
+        <v>86.0361727231958</v>
       </c>
       <c r="M27" t="n">
-        <v>839.6091098144479</v>
+        <v>113.109210364448</v>
       </c>
       <c r="N27" t="n">
         <v>125.5630960051644</v>
       </c>
       <c r="O27" t="n">
-        <v>510.1117665591048</v>
+        <v>714.702165751084</v>
       </c>
       <c r="P27" t="n">
-        <v>67.78766375313268</v>
+        <v>210.3626332487426</v>
       </c>
       <c r="Q27" t="n">
-        <v>12.53902805526951</v>
+        <v>340.2595969231941</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>26.67708806388028</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>737.5093549521448</v>
       </c>
       <c r="M29" t="n">
-        <v>767.2910441117539</v>
+        <v>817.6788590758586</v>
       </c>
       <c r="N29" t="n">
         <v>803.6123015128294</v>
@@ -36852,7 +36852,7 @@
         <v>569.6797675763066</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4030069922231</v>
+        <v>300.0151920281184</v>
       </c>
       <c r="R29" t="n">
         <v>57.60445300312573</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>190.8820427643792</v>
       </c>
       <c r="K30" t="n">
-        <v>41.36651404311466</v>
+        <v>453.9322837827373</v>
       </c>
       <c r="L30" t="n">
         <v>664.5471113965921</v>
       </c>
       <c r="M30" t="n">
-        <v>501.6698247182233</v>
+        <v>291.5984592583596</v>
       </c>
       <c r="N30" t="n">
-        <v>873.3371999811079</v>
+        <v>125.5630960051644</v>
       </c>
       <c r="O30" t="n">
         <v>100.2769476793859</v>
@@ -36931,10 +36931,10 @@
         <v>67.78766375313268</v>
       </c>
       <c r="Q30" t="n">
-        <v>12.53902805526951</v>
+        <v>340.2595969231941</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>26.67708806388028</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>737.5093549521448</v>
       </c>
       <c r="M32" t="n">
-        <v>817.6788590758586</v>
+        <v>767.2910441117539</v>
       </c>
       <c r="N32" t="n">
         <v>803.6123015128294</v>
@@ -37092,7 +37092,7 @@
         <v>350.4030069922231</v>
       </c>
       <c r="R32" t="n">
-        <v>7.216638039021332</v>
+        <v>57.60445300312573</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>190.8820427643792</v>
       </c>
       <c r="K33" t="n">
         <v>453.9322837827373</v>
       </c>
       <c r="L33" t="n">
-        <v>664.5471113965921</v>
+        <v>346.2344412122016</v>
       </c>
       <c r="M33" t="n">
         <v>113.109210364448</v>
@@ -37162,16 +37162,16 @@
         <v>125.5630960051644</v>
       </c>
       <c r="O33" t="n">
-        <v>714.702165751084</v>
+        <v>100.2769476793859</v>
       </c>
       <c r="P33" t="n">
-        <v>177.1313942715308</v>
+        <v>564.5895828314347</v>
       </c>
       <c r="Q33" t="n">
-        <v>12.53902805526951</v>
+        <v>340.2595969231941</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>26.67708806388028</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>10.9725568256396</v>
+        <v>274.7632764940747</v>
       </c>
       <c r="K35" t="n">
         <v>555.4250304960593</v>
       </c>
       <c r="L35" t="n">
-        <v>657.9037349646451</v>
+        <v>453.5356624267146</v>
       </c>
       <c r="M35" t="n">
-        <v>530.1295816031235</v>
+        <v>116.4377468270397</v>
       </c>
       <c r="N35" t="n">
-        <v>657.9037349646451</v>
+        <v>121.3510994301342</v>
       </c>
       <c r="O35" t="n">
         <v>105.8329275234221</v>
       </c>
       <c r="P35" t="n">
-        <v>67.67378282879369</v>
+        <v>569.6797675763066</v>
       </c>
       <c r="Q35" t="n">
-        <v>19.19162156277179</v>
+        <v>350.4030069922231</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>57.60445300312573</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>190.8820427643792</v>
       </c>
       <c r="K36" t="n">
-        <v>41.36651404311466</v>
+        <v>453.9322837827373</v>
       </c>
       <c r="L36" t="n">
-        <v>86.0361727231958</v>
+        <v>346.2344412122015</v>
       </c>
       <c r="M36" t="n">
-        <v>657.9037349646451</v>
+        <v>113.109210364448</v>
       </c>
       <c r="N36" t="n">
-        <v>241.1855220445208</v>
+        <v>125.5630960051644</v>
       </c>
       <c r="O36" t="n">
-        <v>657.9037349646451</v>
+        <v>100.2769476793859</v>
       </c>
       <c r="P36" t="n">
         <v>564.5895828314347</v>
       </c>
       <c r="Q36" t="n">
-        <v>12.53902805526951</v>
+        <v>340.2595969231941</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>26.67708806388028</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>10.9725568256396</v>
+        <v>274.7632764940747</v>
       </c>
       <c r="K38" t="n">
-        <v>49.75818688504236</v>
+        <v>555.4250304960593</v>
       </c>
       <c r="L38" t="n">
         <v>85.95786025344213</v>
       </c>
       <c r="M38" t="n">
-        <v>657.9037349646451</v>
+        <v>116.4377468270397</v>
       </c>
       <c r="N38" t="n">
-        <v>657.9037349646451</v>
+        <v>121.3510994301342</v>
       </c>
       <c r="O38" t="n">
-        <v>657.9037349646451</v>
+        <v>473.4107296966946</v>
       </c>
       <c r="P38" t="n">
-        <v>134.2301549188174</v>
+        <v>569.6797675763066</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4030069922231</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>57.60445300312573</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>190.8820427643792</v>
       </c>
       <c r="K39" t="n">
         <v>453.9322837827373</v>
       </c>
       <c r="L39" t="n">
-        <v>86.0361727231958</v>
+        <v>346.2344412122015</v>
       </c>
       <c r="M39" t="n">
         <v>113.109210364448</v>
@@ -37636,7 +37636,7 @@
         <v>125.5630960051644</v>
       </c>
       <c r="O39" t="n">
-        <v>578.0343469966513</v>
+        <v>100.2769476793859</v>
       </c>
       <c r="P39" t="n">
         <v>564.5895828314347</v>
@@ -37645,7 +37645,7 @@
         <v>340.2595969231941</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>26.67708806388028</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>10.9725568256396</v>
+        <v>127.9996569592697</v>
       </c>
       <c r="K41" t="n">
-        <v>49.75818688504236</v>
+        <v>555.4250304960593</v>
       </c>
       <c r="L41" t="n">
-        <v>85.95786025344213</v>
+        <v>657.9037349646451</v>
       </c>
       <c r="M41" t="n">
-        <v>496.0610547334818</v>
+        <v>116.4377468270397</v>
       </c>
       <c r="N41" t="n">
-        <v>657.9037349646451</v>
+        <v>121.3510994301342</v>
       </c>
       <c r="O41" t="n">
-        <v>657.9037349646451</v>
+        <v>105.8329275234221</v>
       </c>
       <c r="P41" t="n">
         <v>569.6797675763066</v>
       </c>
       <c r="Q41" t="n">
-        <v>19.19162156277179</v>
+        <v>350.4030069922231</v>
       </c>
       <c r="R41" t="n">
-        <v>57.60445300312573</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>190.8820427643792</v>
       </c>
       <c r="K42" t="n">
-        <v>41.36651404311466</v>
+        <v>453.9322837827373</v>
       </c>
       <c r="L42" t="n">
         <v>657.9037349646451</v>
       </c>
       <c r="M42" t="n">
-        <v>657.9037349646451</v>
+        <v>113.109210364448</v>
       </c>
       <c r="N42" t="n">
-        <v>166.1198788813737</v>
+        <v>125.5630960051644</v>
       </c>
       <c r="O42" t="n">
-        <v>657.9037349646451</v>
+        <v>100.2769476793859</v>
       </c>
       <c r="P42" t="n">
-        <v>67.78766375313268</v>
+        <v>252.9202890789911</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.53902805526951</v>
+        <v>340.2595969231941</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>26.67708806388028</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>10.9725568256396</v>
+        <v>274.7632764940747</v>
       </c>
       <c r="K44" t="n">
         <v>49.75818688504236</v>
       </c>
       <c r="L44" t="n">
-        <v>85.95786025344213</v>
+        <v>657.9037349646451</v>
       </c>
       <c r="M44" t="n">
-        <v>553.6655077366073</v>
+        <v>657.9037349646451</v>
       </c>
       <c r="N44" t="n">
         <v>657.9037349646451</v>
       </c>
       <c r="O44" t="n">
-        <v>657.9037349646451</v>
+        <v>105.8329275234221</v>
       </c>
       <c r="P44" t="n">
-        <v>569.6797675763066</v>
+        <v>67.67378282879369</v>
       </c>
       <c r="Q44" t="n">
-        <v>19.19162156277179</v>
+        <v>133.2935921438318</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>190.8820427643792</v>
       </c>
       <c r="K45" t="n">
-        <v>41.36651404311466</v>
+        <v>453.9322837827373</v>
       </c>
       <c r="L45" t="n">
-        <v>657.9037349646451</v>
+        <v>346.2344412122015</v>
       </c>
       <c r="M45" t="n">
-        <v>657.9037349646451</v>
+        <v>113.109210364448</v>
       </c>
       <c r="N45" t="n">
-        <v>657.9037349646451</v>
+        <v>125.5630960051644</v>
       </c>
       <c r="O45" t="n">
-        <v>166.1198788813737</v>
+        <v>100.2769476793859</v>
       </c>
       <c r="P45" t="n">
-        <v>67.78766375313268</v>
+        <v>564.5895828314347</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.53902805526951</v>
+        <v>340.2595969231941</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>26.67708806388028</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
